--- a/#data/E-service.xlsx
+++ b/#data/E-service.xlsx
@@ -8,23 +8,24 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\laragon\www\e-service\#data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70CED456-DCEC-42BD-9788-8B42ACFD46CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C55F94BE-0ADE-4375-860C-82777D7A1196}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{D1F94304-289C-4D91-A5CB-EACC53078010}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{D1F94304-289C-4D91-A5CB-EACC53078010}"/>
   </bookViews>
   <sheets>
     <sheet name="e-memo" sheetId="1" r:id="rId1"/>
     <sheet name="Plan" sheetId="7" r:id="rId2"/>
     <sheet name="database design" sheetId="3" r:id="rId3"/>
-    <sheet name="รหัสอาการเสีย" sheetId="14" r:id="rId4"/>
-    <sheet name="location" sheetId="10" r:id="rId5"/>
-    <sheet name="ประเภท-หมวด" sheetId="13" r:id="rId6"/>
-    <sheet name="ปัญหาข้อมูลเก่า" sheetId="9" r:id="rId7"/>
-    <sheet name="การออกใบแจ้งซ่อม" sheetId="8" r:id="rId8"/>
-    <sheet name="Quastion" sheetId="5" r:id="rId9"/>
-    <sheet name="Flow" sheetId="4" r:id="rId10"/>
-    <sheet name="maintenance request" sheetId="6" r:id="rId11"/>
-    <sheet name="requirement" sheetId="2" r:id="rId12"/>
+    <sheet name="ระดับผู้ใช้งาน" sheetId="15" r:id="rId4"/>
+    <sheet name="รหัสอาการเสีย" sheetId="14" r:id="rId5"/>
+    <sheet name="location" sheetId="10" r:id="rId6"/>
+    <sheet name="ประเภท-หมวด" sheetId="13" r:id="rId7"/>
+    <sheet name="ปัญหาข้อมูลเก่า" sheetId="9" r:id="rId8"/>
+    <sheet name="การออกใบแจ้งซ่อม" sheetId="8" r:id="rId9"/>
+    <sheet name="Quastion" sheetId="5" r:id="rId10"/>
+    <sheet name="Flow" sheetId="4" r:id="rId11"/>
+    <sheet name="maintenance request" sheetId="6" r:id="rId12"/>
+    <sheet name="requirement" sheetId="2" r:id="rId13"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -47,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="610" uniqueCount="453">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="461">
   <si>
     <t>หลักการและเหตุผล</t>
   </si>
@@ -2351,6 +2352,30 @@
   </si>
   <si>
     <t>(NULL, 7,'FC21','ใช้งานหรือปรับตั้งผิดวิธี','Misuse / Wrong setting', '', 1);</t>
+  </si>
+  <si>
+    <t>user</t>
+  </si>
+  <si>
+    <t>ผู้ใช้งาน</t>
+  </si>
+  <si>
+    <t>super-user</t>
+  </si>
+  <si>
+    <t>ช่าง</t>
+  </si>
+  <si>
+    <t>staff</t>
+  </si>
+  <si>
+    <t>หัวหน้าช่าง</t>
+  </si>
+  <si>
+    <t>administrator</t>
+  </si>
+  <si>
+    <t>ผู้ดูแลระบ</t>
   </si>
 </sst>
 </file>
@@ -15737,8 +15762,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="20729567" y="1101538"/>
-          <a:ext cx="5187886" cy="2129118"/>
+          <a:off x="20511960" y="1101538"/>
+          <a:ext cx="5126896" cy="2129118"/>
           <a:chOff x="20245668" y="453838"/>
           <a:chExt cx="5122209" cy="2129118"/>
         </a:xfrm>
@@ -32987,6 +33012,47 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C554FD1B-CCE1-427F-8843-A839E31691A8}">
+  <dimension ref="A2:B13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I27" sqref="I27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA8E29E1-3CA8-49B1-B47D-B8394899C415}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
@@ -33005,7 +33071,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{554AF2CF-D29C-457E-B833-E2B5389EFEE7}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
@@ -33024,7 +33090,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96A21EA5-DD0B-4678-AE46-0AF87634C6E0}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -34262,8 +34328,8 @@
   </sheetPr>
   <dimension ref="B2:BF35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A41" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25"/>
+    <sheetView topLeftCell="F25" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="AE60" sqref="AE60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -34342,6 +34408,53 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCCDFD98-EAFF-4153-B894-F19EED4BCA51}">
+  <dimension ref="C3:F4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.85546875" customWidth="1"/>
+    <col min="5" max="5" width="10.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C3" t="s">
+        <v>453</v>
+      </c>
+      <c r="D3" t="s">
+        <v>457</v>
+      </c>
+      <c r="E3" t="s">
+        <v>455</v>
+      </c>
+      <c r="F3" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="4" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C4" t="s">
+        <v>454</v>
+      </c>
+      <c r="D4" t="s">
+        <v>456</v>
+      </c>
+      <c r="E4" t="s">
+        <v>458</v>
+      </c>
+      <c r="F4" t="s">
+        <v>460</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2EF0868-4D99-47D5-8308-B6676FA121BF}">
   <dimension ref="B2:B23"/>
   <sheetViews>
@@ -34466,7 +34579,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33465E0A-EF9F-424D-8703-6D2534E9DF57}">
   <dimension ref="A1:J207"/>
   <sheetViews>
@@ -37187,7 +37300,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9679FE7D-CFD6-4584-B4E7-45EBF0BF7DDD}">
   <dimension ref="A1:E80"/>
   <sheetViews>
@@ -38309,11 +38422,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD7A1E02-2C41-48A2-B583-EB0724F4C88F}">
   <dimension ref="A20:E28"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+    <sheetView topLeftCell="A13" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
       <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
@@ -38358,7 +38471,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69506E24-EFB8-40E7-B177-0ED6EF197817}">
   <dimension ref="A2:A4"/>
   <sheetViews>
@@ -38381,45 +38494,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C554FD1B-CCE1-427F-8843-A839E31691A8}">
-  <dimension ref="A2:B13"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I27" sqref="I27"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>12</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
 </file>
--- a/#data/E-service.xlsx
+++ b/#data/E-service.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\laragon\www\e-service\#data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C55F94BE-0ADE-4375-860C-82777D7A1196}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A0C08CE-523F-4B28-BAC4-85C727AC6A7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{D1F94304-289C-4D91-A5CB-EACC53078010}"/>
+    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" tabRatio="800" firstSheet="9" activeTab="13" xr2:uid="{D1F94304-289C-4D91-A5CB-EACC53078010}"/>
   </bookViews>
   <sheets>
     <sheet name="e-memo" sheetId="1" r:id="rId1"/>
@@ -26,6 +26,7 @@
     <sheet name="Flow" sheetId="4" r:id="rId11"/>
     <sheet name="maintenance request" sheetId="6" r:id="rId12"/>
     <sheet name="requirement" sheetId="2" r:id="rId13"/>
+    <sheet name="แบบประเมิณหลังซ่อม" sheetId="16" r:id="rId14"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -48,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="461">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="654" uniqueCount="496">
   <si>
     <t>หลักการและเหตุผล</t>
   </si>
@@ -2376,6 +2377,111 @@
   </si>
   <si>
     <t>ผู้ดูแลระบ</t>
+  </si>
+  <si>
+    <t>วันที่ประเมินผล</t>
+  </si>
+  <si>
+    <t>ระยะเวลาทำงาน</t>
+  </si>
+  <si>
+    <t>ความแข็งแรง สวยงาม</t>
+  </si>
+  <si>
+    <t>วัสดุซ่อมได้มาตรฐาน</t>
+  </si>
+  <si>
+    <t>ไม่ก่อให้เกิดความเสียหายต่อส่วนอื่นๆ</t>
+  </si>
+  <si>
+    <t>ทดสอบเครื่องจักร</t>
+  </si>
+  <si>
+    <t>เสร็จสมบูรณ์ ไม่ต้องต่อเติมภายหลัง</t>
+  </si>
+  <si>
+    <t>สอดคล้องระเบียบบริษัท และลูกค้า</t>
+  </si>
+  <si>
+    <t xml:space="preserve">เครื่องมือช่าง สิ่งของเข้า </t>
+  </si>
+  <si>
+    <t>0 ชิ้น</t>
+  </si>
+  <si>
+    <t>เครื่องมือช่าง สิ่งของออก</t>
+  </si>
+  <si>
+    <t>tb_satisfaction_survey</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Explain </t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>Field</t>
+  </si>
+  <si>
+    <t>Example</t>
+  </si>
+  <si>
+    <t>id_survey</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ref_id_maintenance_request </t>
+  </si>
+  <si>
+    <t>ref_id_surveyer</t>
+  </si>
+  <si>
+    <t>recomment</t>
+  </si>
+  <si>
+    <t>ข้อเสนอแนะ</t>
+  </si>
+  <si>
+    <t>survey_date</t>
+  </si>
+  <si>
+    <t>วันที่ประเมิณ</t>
+  </si>
+  <si>
+    <t>6-10</t>
+  </si>
+  <si>
+    <t>0-2</t>
+  </si>
+  <si>
+    <t>3-5</t>
+  </si>
+  <si>
+    <t>ความสะอาด เศษโลหะ, เศษวัสดุ, ฝุ่น</t>
+  </si>
+  <si>
+    <t>REF.ไอดีใบแจ้งซ่อม</t>
+  </si>
+  <si>
+    <t>score_result</t>
+  </si>
+  <si>
+    <t>1-0 ผ่าน-ไม่ผ่าน</t>
+  </si>
+  <si>
+    <t>ref_topic_survey</t>
+  </si>
+  <si>
+    <t>REF.หัวข้อสำรวจ $arrSurvey</t>
+  </si>
+  <si>
+    <t>ref_id_qa</t>
+  </si>
+  <si>
+    <t>REF.ไอดีผู้ควบคุมคุณภาพ QA/จป. ****ย้ายไปเก็บที่ tb_maintenance_request</t>
+  </si>
+  <si>
+    <t>REF.ไอดีผู้ทำแบบสำรวจ  ****ย้ายไปเก็บที่ tb_maintenance_request</t>
   </si>
 </sst>
 </file>
@@ -2481,7 +2587,7 @@
       <family val="3"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2511,6 +2617,24 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2623,7 +2747,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2712,6 +2836,9 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="16" fontId="0" fillId="9" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -15762,8 +15889,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="20511960" y="1101538"/>
-          <a:ext cx="5126896" cy="2129118"/>
+          <a:off x="20571242" y="1101538"/>
+          <a:ext cx="5144879" cy="2129118"/>
           <a:chOff x="20245668" y="453838"/>
           <a:chExt cx="5122209" cy="2129118"/>
         </a:xfrm>
@@ -33016,7 +33143,7 @@
   <dimension ref="A2:B13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I27" sqref="I27"/>
+      <selection activeCell="N19" sqref="N19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -33095,11 +33222,180 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="L17" sqref="L17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB0A6C9E-10AD-4112-8426-2F32B5911F1B}">
+  <dimension ref="A1:G27"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="33.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>475</v>
+      </c>
+      <c r="B2" t="s">
+        <v>474</v>
+      </c>
+      <c r="C2" t="s">
+        <v>473</v>
+      </c>
+      <c r="D2" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>477</v>
+      </c>
+      <c r="G3" s="35" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>482</v>
+      </c>
+      <c r="C4" t="s">
+        <v>483</v>
+      </c>
+      <c r="G4" s="36" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>478</v>
+      </c>
+      <c r="C5" t="s">
+        <v>488</v>
+      </c>
+      <c r="G5" s="34" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>491</v>
+      </c>
+      <c r="C6" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>489</v>
+      </c>
+      <c r="C7" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>480</v>
+      </c>
+      <c r="C8" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>479</v>
+      </c>
+      <c r="C12" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>493</v>
+      </c>
+      <c r="C13" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>469</v>
+      </c>
+      <c r="C26" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>471</v>
+      </c>
+      <c r="C27" t="s">
+        <v>470</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -33112,7 +33408,7 @@
   </sheetPr>
   <dimension ref="A1:AF31"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A5" sqref="A5:XFD5"/>
     </sheetView>
   </sheetViews>
@@ -34328,8 +34624,8 @@
   </sheetPr>
   <dimension ref="B2:BF35"/>
   <sheetViews>
-    <sheetView topLeftCell="F25" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="AE60" sqref="AE60"/>
+    <sheetView topLeftCell="M3" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="R61" sqref="R61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -34411,8 +34707,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCCDFD98-EAFF-4153-B894-F19EED4BCA51}">
   <dimension ref="C3:F4"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -38476,7 +38772,7 @@
   <dimension ref="A2:A4"/>
   <sheetViews>
     <sheetView zoomScale="235" zoomScaleNormal="235" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/#data/E-service.xlsx
+++ b/#data/E-service.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\laragon\www\e-service\#data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A0C08CE-523F-4B28-BAC4-85C727AC6A7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DEEF6FA-DD4B-44DE-A435-48823705A5D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" tabRatio="800" firstSheet="9" activeTab="13" xr2:uid="{D1F94304-289C-4D91-A5CB-EACC53078010}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="800" firstSheet="9" activeTab="13" xr2:uid="{D1F94304-289C-4D91-A5CB-EACC53078010}"/>
   </bookViews>
   <sheets>
     <sheet name="e-memo" sheetId="1" r:id="rId1"/>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="654" uniqueCount="496">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="656" uniqueCount="496">
   <si>
     <t>หลักการและเหตุผล</t>
   </si>
@@ -2472,9 +2472,6 @@
     <t>ref_topic_survey</t>
   </si>
   <si>
-    <t>REF.หัวข้อสำรวจ $arrSurvey</t>
-  </si>
-  <si>
     <t>ref_id_qa</t>
   </si>
   <si>
@@ -2482,6 +2479,9 @@
   </si>
   <si>
     <t>REF.ไอดีผู้ทำแบบสำรวจ  ****ย้ายไปเก็บที่ tb_maintenance_request</t>
+  </si>
+  <si>
+    <t>REF.หัวข้อสำรวจ $arrTopicSurvey</t>
   </si>
 </sst>
 </file>
@@ -2812,6 +2812,9 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="16" fontId="0" fillId="9" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2836,9 +2839,6 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="16" fontId="0" fillId="9" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -33237,7 +33237,7 @@
   <dimension ref="A1:G27"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -33268,18 +33268,12 @@
       <c r="A3" t="s">
         <v>477</v>
       </c>
-      <c r="G3" s="35" t="s">
+      <c r="G3" s="27" t="s">
         <v>485</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>482</v>
-      </c>
-      <c r="C4" t="s">
-        <v>483</v>
-      </c>
-      <c r="G4" s="36" t="s">
+      <c r="G4" s="28" t="s">
         <v>486</v>
       </c>
     </row>
@@ -33290,7 +33284,7 @@
       <c r="C5" t="s">
         <v>488</v>
       </c>
-      <c r="G5" s="34" t="s">
+      <c r="G5" s="26" t="s">
         <v>484</v>
       </c>
     </row>
@@ -33299,7 +33293,7 @@
         <v>491</v>
       </c>
       <c r="C6" t="s">
-        <v>492</v>
+        <v>495</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -33318,20 +33312,36 @@
         <v>481</v>
       </c>
     </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>482</v>
+      </c>
+      <c r="C11" t="s">
+        <v>483</v>
+      </c>
+    </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>479</v>
       </c>
       <c r="C12" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
+        <v>492</v>
+      </c>
+      <c r="C13" t="s">
         <v>493</v>
       </c>
-      <c r="C13" t="s">
-        <v>494</v>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>482</v>
+      </c>
+      <c r="C14" t="s">
+        <v>483</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
@@ -33424,45 +33434,45 @@
       </c>
     </row>
     <row r="2" spans="1:32" ht="21" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="26" t="s">
+      <c r="A2" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="B2" s="28" t="s">
+      <c r="B2" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
-      <c r="F2" s="28"/>
-      <c r="G2" s="28"/>
-      <c r="H2" s="28"/>
-      <c r="I2" s="28"/>
-      <c r="J2" s="28"/>
-      <c r="K2" s="28"/>
-      <c r="L2" s="28"/>
-      <c r="M2" s="28"/>
-      <c r="N2" s="28"/>
-      <c r="O2" s="28"/>
-      <c r="P2" s="28"/>
-      <c r="Q2" s="28"/>
-      <c r="R2" s="28"/>
-      <c r="S2" s="28"/>
-      <c r="T2" s="28"/>
-      <c r="U2" s="28"/>
-      <c r="V2" s="28"/>
-      <c r="W2" s="28"/>
-      <c r="X2" s="28"/>
-      <c r="Y2" s="28"/>
-      <c r="Z2" s="28"/>
-      <c r="AA2" s="28"/>
-      <c r="AB2" s="28"/>
-      <c r="AC2" s="28"/>
-      <c r="AD2" s="28"/>
-      <c r="AE2" s="28"/>
-      <c r="AF2" s="28"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="31"/>
+      <c r="I2" s="31"/>
+      <c r="J2" s="31"/>
+      <c r="K2" s="31"/>
+      <c r="L2" s="31"/>
+      <c r="M2" s="31"/>
+      <c r="N2" s="31"/>
+      <c r="O2" s="31"/>
+      <c r="P2" s="31"/>
+      <c r="Q2" s="31"/>
+      <c r="R2" s="31"/>
+      <c r="S2" s="31"/>
+      <c r="T2" s="31"/>
+      <c r="U2" s="31"/>
+      <c r="V2" s="31"/>
+      <c r="W2" s="31"/>
+      <c r="X2" s="31"/>
+      <c r="Y2" s="31"/>
+      <c r="Z2" s="31"/>
+      <c r="AA2" s="31"/>
+      <c r="AB2" s="31"/>
+      <c r="AC2" s="31"/>
+      <c r="AD2" s="31"/>
+      <c r="AE2" s="31"/>
+      <c r="AF2" s="31"/>
     </row>
     <row r="3" spans="1:32" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="27"/>
+      <c r="A3" s="30"/>
       <c r="B3" s="4">
         <v>1</v>
       </c>
@@ -33986,75 +33996,75 @@
       <c r="AF15" s="5"/>
     </row>
     <row r="17" spans="1:32" x14ac:dyDescent="0.55000000000000004">
-      <c r="B17" s="29"/>
-      <c r="C17" s="29"/>
-      <c r="D17" s="29"/>
-      <c r="E17" s="29"/>
-      <c r="F17" s="29"/>
-      <c r="G17" s="29"/>
-      <c r="H17" s="29"/>
-      <c r="I17" s="29"/>
-      <c r="J17" s="29"/>
-      <c r="K17" s="29"/>
-      <c r="L17" s="29"/>
-      <c r="M17" s="29"/>
-      <c r="N17" s="29"/>
-      <c r="O17" s="29"/>
-      <c r="P17" s="29"/>
-      <c r="Q17" s="29"/>
-      <c r="R17" s="29"/>
-      <c r="S17" s="29"/>
-      <c r="T17" s="29"/>
-      <c r="U17" s="29"/>
-      <c r="V17" s="29"/>
-      <c r="W17" s="29"/>
-      <c r="X17" s="29"/>
-      <c r="Y17" s="29"/>
-      <c r="Z17" s="29"/>
-      <c r="AA17" s="29"/>
-      <c r="AB17" s="30"/>
-      <c r="AC17" s="30"/>
+      <c r="B17" s="32"/>
+      <c r="C17" s="32"/>
+      <c r="D17" s="32"/>
+      <c r="E17" s="32"/>
+      <c r="F17" s="32"/>
+      <c r="G17" s="32"/>
+      <c r="H17" s="32"/>
+      <c r="I17" s="32"/>
+      <c r="J17" s="32"/>
+      <c r="K17" s="32"/>
+      <c r="L17" s="32"/>
+      <c r="M17" s="32"/>
+      <c r="N17" s="32"/>
+      <c r="O17" s="32"/>
+      <c r="P17" s="32"/>
+      <c r="Q17" s="32"/>
+      <c r="R17" s="32"/>
+      <c r="S17" s="32"/>
+      <c r="T17" s="32"/>
+      <c r="U17" s="32"/>
+      <c r="V17" s="32"/>
+      <c r="W17" s="32"/>
+      <c r="X17" s="32"/>
+      <c r="Y17" s="32"/>
+      <c r="Z17" s="32"/>
+      <c r="AA17" s="32"/>
+      <c r="AB17" s="33"/>
+      <c r="AC17" s="33"/>
     </row>
     <row r="18" spans="1:32" x14ac:dyDescent="0.55000000000000004">
-      <c r="A18" s="26" t="s">
+      <c r="A18" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="B18" s="31" t="s">
+      <c r="B18" s="34" t="s">
         <v>27</v>
       </c>
-      <c r="C18" s="32"/>
-      <c r="D18" s="32"/>
-      <c r="E18" s="32"/>
-      <c r="F18" s="32"/>
-      <c r="G18" s="32"/>
-      <c r="H18" s="32"/>
-      <c r="I18" s="32"/>
-      <c r="J18" s="32"/>
-      <c r="K18" s="32"/>
-      <c r="L18" s="32"/>
-      <c r="M18" s="32"/>
-      <c r="N18" s="32"/>
-      <c r="O18" s="32"/>
-      <c r="P18" s="32"/>
-      <c r="Q18" s="32"/>
-      <c r="R18" s="32"/>
-      <c r="S18" s="32"/>
-      <c r="T18" s="32"/>
-      <c r="U18" s="32"/>
-      <c r="V18" s="32"/>
-      <c r="W18" s="32"/>
-      <c r="X18" s="32"/>
-      <c r="Y18" s="32"/>
-      <c r="Z18" s="32"/>
-      <c r="AA18" s="32"/>
-      <c r="AB18" s="32"/>
-      <c r="AC18" s="33"/>
+      <c r="C18" s="35"/>
+      <c r="D18" s="35"/>
+      <c r="E18" s="35"/>
+      <c r="F18" s="35"/>
+      <c r="G18" s="35"/>
+      <c r="H18" s="35"/>
+      <c r="I18" s="35"/>
+      <c r="J18" s="35"/>
+      <c r="K18" s="35"/>
+      <c r="L18" s="35"/>
+      <c r="M18" s="35"/>
+      <c r="N18" s="35"/>
+      <c r="O18" s="35"/>
+      <c r="P18" s="35"/>
+      <c r="Q18" s="35"/>
+      <c r="R18" s="35"/>
+      <c r="S18" s="35"/>
+      <c r="T18" s="35"/>
+      <c r="U18" s="35"/>
+      <c r="V18" s="35"/>
+      <c r="W18" s="35"/>
+      <c r="X18" s="35"/>
+      <c r="Y18" s="35"/>
+      <c r="Z18" s="35"/>
+      <c r="AA18" s="35"/>
+      <c r="AB18" s="35"/>
+      <c r="AC18" s="36"/>
       <c r="AD18" s="9"/>
       <c r="AE18" s="9"/>
       <c r="AF18" s="9"/>
     </row>
     <row r="19" spans="1:32" x14ac:dyDescent="0.55000000000000004">
-      <c r="A19" s="27"/>
+      <c r="A19" s="30"/>
       <c r="B19" s="4">
         <v>1</v>
       </c>
@@ -34360,45 +34370,45 @@
       <c r="AF25" s="8"/>
     </row>
     <row r="27" spans="1:32" x14ac:dyDescent="0.55000000000000004">
-      <c r="A27" s="26" t="s">
+      <c r="A27" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="B27" s="28" t="s">
+      <c r="B27" s="31" t="s">
         <v>29</v>
       </c>
-      <c r="C27" s="28"/>
-      <c r="D27" s="28"/>
-      <c r="E27" s="28"/>
-      <c r="F27" s="28"/>
-      <c r="G27" s="28"/>
-      <c r="H27" s="28"/>
-      <c r="I27" s="28"/>
-      <c r="J27" s="28"/>
-      <c r="K27" s="28"/>
-      <c r="L27" s="28"/>
-      <c r="M27" s="28"/>
-      <c r="N27" s="28"/>
-      <c r="O27" s="28"/>
-      <c r="P27" s="28"/>
-      <c r="Q27" s="28"/>
-      <c r="R27" s="28"/>
-      <c r="S27" s="28"/>
-      <c r="T27" s="28"/>
-      <c r="U27" s="28"/>
-      <c r="V27" s="28"/>
-      <c r="W27" s="28"/>
-      <c r="X27" s="28"/>
-      <c r="Y27" s="28"/>
-      <c r="Z27" s="28"/>
-      <c r="AA27" s="28"/>
-      <c r="AB27" s="28"/>
-      <c r="AC27" s="28"/>
-      <c r="AD27" s="28"/>
-      <c r="AE27" s="28"/>
-      <c r="AF27" s="28"/>
+      <c r="C27" s="31"/>
+      <c r="D27" s="31"/>
+      <c r="E27" s="31"/>
+      <c r="F27" s="31"/>
+      <c r="G27" s="31"/>
+      <c r="H27" s="31"/>
+      <c r="I27" s="31"/>
+      <c r="J27" s="31"/>
+      <c r="K27" s="31"/>
+      <c r="L27" s="31"/>
+      <c r="M27" s="31"/>
+      <c r="N27" s="31"/>
+      <c r="O27" s="31"/>
+      <c r="P27" s="31"/>
+      <c r="Q27" s="31"/>
+      <c r="R27" s="31"/>
+      <c r="S27" s="31"/>
+      <c r="T27" s="31"/>
+      <c r="U27" s="31"/>
+      <c r="V27" s="31"/>
+      <c r="W27" s="31"/>
+      <c r="X27" s="31"/>
+      <c r="Y27" s="31"/>
+      <c r="Z27" s="31"/>
+      <c r="AA27" s="31"/>
+      <c r="AB27" s="31"/>
+      <c r="AC27" s="31"/>
+      <c r="AD27" s="31"/>
+      <c r="AE27" s="31"/>
+      <c r="AF27" s="31"/>
     </row>
     <row r="28" spans="1:32" x14ac:dyDescent="0.55000000000000004">
-      <c r="A28" s="27"/>
+      <c r="A28" s="30"/>
       <c r="B28" s="4">
         <v>1</v>
       </c>

--- a/#data/E-service.xlsx
+++ b/#data/E-service.xlsx
@@ -1,32 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\laragon\www\e-service\#data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DEEF6FA-DD4B-44DE-A435-48823705A5D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88FB3D33-E4B1-4A91-AD34-56C1B67548AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="800" firstSheet="9" activeTab="13" xr2:uid="{D1F94304-289C-4D91-A5CB-EACC53078010}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="800" xr2:uid="{D1F94304-289C-4D91-A5CB-EACC53078010}"/>
   </bookViews>
   <sheets>
-    <sheet name="e-memo" sheetId="1" r:id="rId1"/>
-    <sheet name="Plan" sheetId="7" r:id="rId2"/>
-    <sheet name="database design" sheetId="3" r:id="rId3"/>
-    <sheet name="ระดับผู้ใช้งาน" sheetId="15" r:id="rId4"/>
-    <sheet name="รหัสอาการเสีย" sheetId="14" r:id="rId5"/>
-    <sheet name="location" sheetId="10" r:id="rId6"/>
-    <sheet name="ประเภท-หมวด" sheetId="13" r:id="rId7"/>
-    <sheet name="ปัญหาข้อมูลเก่า" sheetId="9" r:id="rId8"/>
-    <sheet name="การออกใบแจ้งซ่อม" sheetId="8" r:id="rId9"/>
-    <sheet name="Quastion" sheetId="5" r:id="rId10"/>
-    <sheet name="Flow" sheetId="4" r:id="rId11"/>
-    <sheet name="maintenance request" sheetId="6" r:id="rId12"/>
-    <sheet name="requirement" sheetId="2" r:id="rId13"/>
-    <sheet name="แบบประเมิณหลังซ่อม" sheetId="16" r:id="rId14"/>
+    <sheet name="Checklist" sheetId="17" r:id="rId1"/>
+    <sheet name="e-memo" sheetId="1" r:id="rId2"/>
+    <sheet name="Plan" sheetId="7" r:id="rId3"/>
+    <sheet name="database design" sheetId="3" r:id="rId4"/>
+    <sheet name="ระดับผู้ใช้งาน" sheetId="15" r:id="rId5"/>
+    <sheet name="รหัสอาการเสีย" sheetId="14" r:id="rId6"/>
+    <sheet name="location" sheetId="10" r:id="rId7"/>
+    <sheet name="ประเภท-หมวด" sheetId="13" r:id="rId8"/>
+    <sheet name="ปัญหาข้อมูลเก่า" sheetId="9" r:id="rId9"/>
+    <sheet name="การออกใบแจ้งซ่อม" sheetId="8" r:id="rId10"/>
+    <sheet name="Quastion" sheetId="5" r:id="rId11"/>
+    <sheet name="Flow" sheetId="4" r:id="rId12"/>
+    <sheet name="maintenance request" sheetId="6" r:id="rId13"/>
+    <sheet name="requirement" sheetId="2" r:id="rId14"/>
+    <sheet name="แบบประเมิณหลังซ่อม" sheetId="16" r:id="rId15"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -49,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="656" uniqueCount="496">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="693" uniqueCount="509">
   <si>
     <t>หลักการและเหตุผล</t>
   </si>
@@ -2483,12 +2484,51 @@
   <si>
     <t>REF.หัวข้อสำรวจ $arrTopicSurvey</t>
   </si>
+  <si>
+    <t>หมวดหลัก</t>
+  </si>
+  <si>
+    <t>หน้ารวม</t>
+  </si>
+  <si>
+    <t>List</t>
+  </si>
+  <si>
+    <t>?module=supplier</t>
+  </si>
+  <si>
+    <t>ลิงค์</t>
+  </si>
+  <si>
+    <t>?module=brand</t>
+  </si>
+  <si>
+    <t>แบรนด์</t>
+  </si>
+  <si>
+    <t>ซัพพลายเออร์</t>
+  </si>
+  <si>
+    <t>ยังไม่ได้กำหนดสิทธิ์ แยกแต่ละแผนก</t>
+  </si>
+  <si>
+    <t>เสร็จ</t>
+  </si>
+  <si>
+    <t>ตรวจ</t>
+  </si>
+  <si>
+    <t>ü</t>
+  </si>
+  <si>
+    <t>Í</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2586,8 +2626,30 @@
       <name val="Consolas"/>
       <family val="3"/>
     </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FF212529"/>
+      <name val="Cordia New"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Wingdings"/>
+      <charset val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Wingdings 2"/>
+      <family val="1"/>
+      <charset val="2"/>
+    </font>
   </fonts>
-  <fills count="10">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2635,6 +2697,36 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2747,7 +2839,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2838,6 +2930,61 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -33075,70 +33222,242 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4423AA93-3D8C-4807-903D-E904763E4317}">
-  <dimension ref="A1:D19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7EB70782-4063-4EB5-96ED-E45C211F8B0C}">
+  <dimension ref="A1:L22"/>
   <sheetViews>
-    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L18" sqref="L18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="21.75" x14ac:dyDescent="0.5"/>
+  <cols>
+    <col min="1" max="1" width="19.7109375" style="38" customWidth="1"/>
+    <col min="2" max="2" width="30" style="37" customWidth="1"/>
+    <col min="3" max="3" width="5" style="37" customWidth="1"/>
+    <col min="4" max="4" width="5.42578125" style="37" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5" style="37" customWidth="1"/>
+    <col min="6" max="6" width="5.42578125" style="37" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5" style="37" customWidth="1"/>
+    <col min="8" max="8" width="5.42578125" style="37" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5" style="37" customWidth="1"/>
+    <col min="10" max="10" width="5.42578125" style="37" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="5.42578125" style="37" customWidth="1"/>
+    <col min="12" max="12" width="65.140625" style="37" customWidth="1"/>
+    <col min="13" max="13" width="36.85546875" style="37" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="37"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>3</v>
-      </c>
-      <c r="D19" t="s">
-        <v>4</v>
-      </c>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.5">
+      <c r="A1" s="39" t="s">
+        <v>496</v>
+      </c>
+      <c r="B1" s="40" t="s">
+        <v>500</v>
+      </c>
+      <c r="C1" s="56" t="s">
+        <v>497</v>
+      </c>
+      <c r="D1" s="56"/>
+      <c r="E1" s="57" t="s">
+        <v>497</v>
+      </c>
+      <c r="F1" s="57"/>
+      <c r="G1" s="58" t="s">
+        <v>497</v>
+      </c>
+      <c r="H1" s="58"/>
+      <c r="I1" s="59" t="s">
+        <v>497</v>
+      </c>
+      <c r="J1" s="59"/>
+      <c r="K1" s="48"/>
+      <c r="L1" s="54"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.5">
+      <c r="A2" s="39"/>
+      <c r="B2" s="40"/>
+      <c r="C2" s="56" t="s">
+        <v>498</v>
+      </c>
+      <c r="D2" s="56"/>
+      <c r="E2" s="57" t="s">
+        <v>498</v>
+      </c>
+      <c r="F2" s="57"/>
+      <c r="G2" s="58" t="s">
+        <v>498</v>
+      </c>
+      <c r="H2" s="58"/>
+      <c r="I2" s="59" t="s">
+        <v>498</v>
+      </c>
+      <c r="J2" s="59"/>
+      <c r="K2" s="48"/>
+      <c r="L2" s="55"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.5">
+      <c r="A3" s="11"/>
+      <c r="B3" s="47"/>
+      <c r="C3" s="51" t="s">
+        <v>505</v>
+      </c>
+      <c r="D3" s="51" t="s">
+        <v>506</v>
+      </c>
+      <c r="E3" s="51" t="s">
+        <v>505</v>
+      </c>
+      <c r="F3" s="51" t="s">
+        <v>506</v>
+      </c>
+      <c r="G3" s="51" t="s">
+        <v>505</v>
+      </c>
+      <c r="H3" s="51" t="s">
+        <v>506</v>
+      </c>
+      <c r="I3" s="51" t="s">
+        <v>505</v>
+      </c>
+      <c r="J3" s="51" t="s">
+        <v>506</v>
+      </c>
+      <c r="K3" s="51"/>
+      <c r="L3" s="49"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.5">
+      <c r="A4" s="42" t="s">
+        <v>503</v>
+      </c>
+      <c r="B4" s="41" t="s">
+        <v>499</v>
+      </c>
+      <c r="C4" s="50" t="s">
+        <v>507</v>
+      </c>
+      <c r="D4" s="50" t="s">
+        <v>507</v>
+      </c>
+      <c r="E4" s="50" t="s">
+        <v>507</v>
+      </c>
+      <c r="F4" s="50" t="s">
+        <v>507</v>
+      </c>
+      <c r="G4" s="50" t="s">
+        <v>507</v>
+      </c>
+      <c r="H4" s="50" t="s">
+        <v>507</v>
+      </c>
+      <c r="I4" s="50" t="s">
+        <v>507</v>
+      </c>
+      <c r="J4" s="50" t="s">
+        <v>507</v>
+      </c>
+      <c r="K4" s="50" t="s">
+        <v>507</v>
+      </c>
+      <c r="L4" s="46" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.5">
+      <c r="A5" s="44" t="s">
+        <v>502</v>
+      </c>
+      <c r="B5" s="45" t="s">
+        <v>501</v>
+      </c>
+      <c r="C5" s="43"/>
+      <c r="D5" s="43"/>
+      <c r="E5" s="43"/>
+      <c r="F5" s="43"/>
+      <c r="G5" s="43"/>
+      <c r="H5" s="43"/>
+      <c r="I5" s="43"/>
+      <c r="J5" s="43"/>
+      <c r="K5" s="43"/>
+      <c r="L5" s="46" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="21" spans="3:11" x14ac:dyDescent="0.5">
+      <c r="C21" s="52" t="s">
+        <v>508</v>
+      </c>
+      <c r="D21" s="43"/>
+      <c r="E21" s="52" t="s">
+        <v>508</v>
+      </c>
+      <c r="F21" s="43"/>
+      <c r="G21" s="52" t="s">
+        <v>508</v>
+      </c>
+      <c r="H21" s="43"/>
+      <c r="I21" s="52" t="s">
+        <v>508</v>
+      </c>
+      <c r="J21" s="43"/>
+      <c r="K21" s="53"/>
+    </row>
+    <row r="22" spans="3:11" x14ac:dyDescent="0.5">
+      <c r="C22" s="45"/>
+      <c r="D22" s="43"/>
+      <c r="E22" s="45"/>
+      <c r="F22" s="43"/>
+      <c r="G22" s="45"/>
+      <c r="H22" s="43"/>
+      <c r="I22" s="45"/>
+      <c r="J22" s="43"/>
+      <c r="K22" s="53"/>
     </row>
   </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="L1:L2"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="I1:J1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69506E24-EFB8-40E7-B177-0ED6EF197817}">
+  <dimension ref="A2:A4"/>
+  <sheetViews>
+    <sheetView zoomScale="235" zoomScaleNormal="235" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C554FD1B-CCE1-427F-8843-A839E31691A8}">
   <dimension ref="A2:B13"/>
   <sheetViews>
@@ -33179,7 +33498,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA8E29E1-3CA8-49B1-B47D-B8394899C415}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
@@ -33198,7 +33517,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{554AF2CF-D29C-457E-B833-E2B5389EFEE7}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
@@ -33217,7 +33536,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96A21EA5-DD0B-4678-AE46-0AF87634C6E0}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -33232,11 +33551,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB0A6C9E-10AD-4112-8426-2F32B5911F1B}">
   <dimension ref="A1:G27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
@@ -33412,6 +33731,70 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4423AA93-3D8C-4807-903D-E904763E4317}">
+  <dimension ref="A1:D19"/>
+  <sheetViews>
+    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="E26" sqref="E26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>3</v>
+      </c>
+      <c r="D19" t="s">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62DA2000-1957-4A7C-9630-5FB3E1BBE12B}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
@@ -34627,7 +35010,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08FECD23-E5B2-4338-AA22-C8BDFB60D3AE}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
@@ -34713,7 +35096,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCCDFD98-EAFF-4153-B894-F19EED4BCA51}">
   <dimension ref="C3:F4"/>
   <sheetViews>
@@ -34760,7 +35143,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2EF0868-4D99-47D5-8308-B6676FA121BF}">
   <dimension ref="B2:B23"/>
   <sheetViews>
@@ -34885,7 +35268,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33465E0A-EF9F-424D-8703-6D2534E9DF57}">
   <dimension ref="A1:J207"/>
   <sheetViews>
@@ -37606,7 +37989,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9679FE7D-CFD6-4584-B4E7-45EBF0BF7DDD}">
   <dimension ref="A1:E80"/>
   <sheetViews>
@@ -38728,7 +39111,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD7A1E02-2C41-48A2-B583-EB0724F4C88F}">
   <dimension ref="A20:E28"/>
   <sheetViews>
@@ -38775,29 +39158,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69506E24-EFB8-40E7-B177-0ED6EF197817}">
-  <dimension ref="A2:A4"/>
-  <sheetViews>
-    <sheetView zoomScale="235" zoomScaleNormal="235" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/#data/E-service.xlsx
+++ b/#data/E-service.xlsx
@@ -1,56 +1,47 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\laragon\www\e-service\#data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\laragon\www\E-service\#data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88FB3D33-E4B1-4A91-AD34-56C1B67548AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{07A819DB-D47D-47C9-95FF-8C06EC6EB2E7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="800" xr2:uid="{D1F94304-289C-4D91-A5CB-EACC53078010}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="800" activeTab="2" xr2:uid="{D1F94304-289C-4D91-A5CB-EACC53078010}"/>
   </bookViews>
   <sheets>
     <sheet name="Checklist" sheetId="17" r:id="rId1"/>
     <sheet name="e-memo" sheetId="1" r:id="rId2"/>
-    <sheet name="Plan" sheetId="7" r:id="rId3"/>
-    <sheet name="database design" sheetId="3" r:id="rId4"/>
-    <sheet name="ระดับผู้ใช้งาน" sheetId="15" r:id="rId5"/>
-    <sheet name="รหัสอาการเสีย" sheetId="14" r:id="rId6"/>
-    <sheet name="location" sheetId="10" r:id="rId7"/>
-    <sheet name="ประเภท-หมวด" sheetId="13" r:id="rId8"/>
-    <sheet name="ปัญหาข้อมูลเก่า" sheetId="9" r:id="rId9"/>
-    <sheet name="การออกใบแจ้งซ่อม" sheetId="8" r:id="rId10"/>
-    <sheet name="Quastion" sheetId="5" r:id="rId11"/>
-    <sheet name="Flow" sheetId="4" r:id="rId12"/>
-    <sheet name="maintenance request" sheetId="6" r:id="rId13"/>
-    <sheet name="requirement" sheetId="2" r:id="rId14"/>
-    <sheet name="แบบประเมิณหลังซ่อม" sheetId="16" r:id="rId15"/>
+    <sheet name="หมวด IT" sheetId="18" r:id="rId3"/>
+    <sheet name="Plan" sheetId="7" r:id="rId4"/>
+    <sheet name="database design" sheetId="3" r:id="rId5"/>
+    <sheet name="ระดับผู้ใช้งาน" sheetId="15" r:id="rId6"/>
+    <sheet name="รหัสอาการเสีย" sheetId="14" r:id="rId7"/>
+    <sheet name="location" sheetId="10" r:id="rId8"/>
+    <sheet name="ประเภท-หมวด" sheetId="13" r:id="rId9"/>
+    <sheet name="ปัญหาข้อมูลเก่า" sheetId="9" r:id="rId10"/>
+    <sheet name="การออกใบแจ้งซ่อม" sheetId="8" r:id="rId11"/>
+    <sheet name="Quastion" sheetId="5" r:id="rId12"/>
+    <sheet name="Flow" sheetId="4" r:id="rId13"/>
+    <sheet name="maintenance request" sheetId="6" r:id="rId14"/>
+    <sheet name="requirement" sheetId="2" r:id="rId15"/>
+    <sheet name="แบบประเมิณหลังซ่อม" sheetId="16" r:id="rId16"/>
   </sheets>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="181029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="693" uniqueCount="509">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="803" uniqueCount="544">
   <si>
     <t>หลักการและเหตุผล</t>
   </si>
@@ -2485,9 +2476,6 @@
     <t>REF.หัวข้อสำรวจ $arrTopicSurvey</t>
   </si>
   <si>
-    <t>หมวดหลัก</t>
-  </si>
-  <si>
     <t>หน้ารวม</t>
   </si>
   <si>
@@ -2503,36 +2491,144 @@
     <t>?module=brand</t>
   </si>
   <si>
+    <t>เสร็จ</t>
+  </si>
+  <si>
+    <t>ตรวจ</t>
+  </si>
+  <si>
+    <t>ü</t>
+  </si>
+  <si>
+    <t>Í</t>
+  </si>
+  <si>
+    <t>เมนู</t>
+  </si>
+  <si>
+    <t>เพิ่ม</t>
+  </si>
+  <si>
+    <t>แก้ไข</t>
+  </si>
+  <si>
+    <t>ค้นหา</t>
+  </si>
+  <si>
+    <t>ระงับ</t>
+  </si>
+  <si>
+    <t>ADD</t>
+  </si>
+  <si>
+    <t>EDIT</t>
+  </si>
+  <si>
+    <t>SEARCH</t>
+  </si>
+  <si>
+    <t>HOLD</t>
+  </si>
+  <si>
     <t>แบรนด์</t>
   </si>
   <si>
+    <t>แผนก</t>
+  </si>
+  <si>
+    <t>หน่วยนับ</t>
+  </si>
+  <si>
+    <t>?module=building</t>
+  </si>
+  <si>
+    <t>?module=dept</t>
+  </si>
+  <si>
+    <t>?module=unit</t>
+  </si>
+  <si>
     <t>ซัพพลายเออร์</t>
   </si>
   <si>
-    <t>ยังไม่ได้กำหนดสิทธิ์ แยกแต่ละแผนก</t>
-  </si>
-  <si>
-    <t>เสร็จ</t>
-  </si>
-  <si>
-    <t>ตรวจ</t>
-  </si>
-  <si>
-    <t>ü</t>
-  </si>
-  <si>
-    <t>Í</t>
+    <t>?module=location</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> กำหนดสิทธิ์การใช้งาน</t>
+  </si>
+  <si>
+    <t>?module=permission</t>
+  </si>
+  <si>
+    <t>ยังไม่ได้เอาไปผูกกับเมนูต่างๆ ตอนนี้กำหนดสิทธิ์จาก Class</t>
+  </si>
+  <si>
+    <t>ไม่มี</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> รายชื่อผู้ใช้งาน</t>
+  </si>
+  <si>
+    <t>?module=userlist</t>
+  </si>
+  <si>
+    <t>Responsive</t>
+  </si>
+  <si>
+    <t>Mobile</t>
+  </si>
+  <si>
+    <t>ฮาร์ดแวร์</t>
+  </si>
+  <si>
+    <t>ซอฟต์แวร์</t>
+  </si>
+  <si>
+    <t>เน็ตเวิรค์</t>
+  </si>
+  <si>
+    <t>กล้องวงจรปิด</t>
+  </si>
+  <si>
+    <t>คอมพิวเตอร์</t>
+  </si>
+  <si>
+    <t>โน็ตบุ๊ค</t>
+  </si>
+  <si>
+    <t>สายสัญญาณ</t>
+  </si>
+  <si>
+    <t>อุปกรณ์เชื่อมต่อ</t>
+  </si>
+  <si>
+    <t>โทรศัพท์มือถือ</t>
+  </si>
+  <si>
+    <t>แท็บเล็ต</t>
+  </si>
+  <si>
+    <t>Windows</t>
+  </si>
+  <si>
+    <t>CCMS</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>Temp Online</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Tahoma"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -2572,7 +2668,7 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
+      <name val="Tahoma"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -2629,27 +2725,31 @@
     <font>
       <b/>
       <sz val="14"/>
+      <color theme="1"/>
+      <name val="Wingdings 2"/>
+      <family val="1"/>
+      <charset val="2"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF00B050"/>
+      <name val="Wingdings"/>
+      <charset val="2"/>
+    </font>
+    <font>
+      <sz val="14"/>
       <color rgb="FF212529"/>
       <name val="Cordia New"/>
       <family val="2"/>
     </font>
     <font>
-      <b/>
-      <sz val="14"/>
-      <color theme="1"/>
-      <name val="Wingdings"/>
-      <charset val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="14"/>
-      <color theme="1"/>
-      <name val="Wingdings 2"/>
-      <family val="1"/>
-      <charset val="2"/>
+      <sz val="12"/>
+      <color theme="0" tint="-0.249977111117893"/>
+      <name val="Cordia New"/>
+      <family val="2"/>
     </font>
   </fonts>
-  <fills count="15">
+  <fills count="16">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2702,12 +2802,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -2727,6 +2821,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF7D7F5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2839,7 +2945,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2907,6 +3013,56 @@
     <xf numFmtId="16" fontId="0" fillId="9" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2930,61 +3086,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -16036,8 +16137,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="20571242" y="1101538"/>
-          <a:ext cx="5144879" cy="2129118"/>
+          <a:off x="23260223" y="1064903"/>
+          <a:ext cx="5870245" cy="2048522"/>
           <a:chOff x="20245668" y="453838"/>
           <a:chExt cx="5122209" cy="2129118"/>
         </a:xfrm>
@@ -22639,8 +22740,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="845604" y="3085170"/>
-          <a:ext cx="1037456" cy="2079060"/>
+          <a:off x="921804" y="2932770"/>
+          <a:ext cx="1189856" cy="1974285"/>
           <a:chOff x="843223" y="3085170"/>
           <a:chExt cx="1032693" cy="2079060"/>
         </a:xfrm>
@@ -23236,8 +23337,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="2791081" y="3088742"/>
-          <a:ext cx="1037455" cy="2079060"/>
+          <a:off x="3095881" y="2936342"/>
+          <a:ext cx="1189855" cy="1974285"/>
           <a:chOff x="843223" y="3085170"/>
           <a:chExt cx="1032693" cy="2079060"/>
         </a:xfrm>
@@ -23848,8 +23949,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="6580842" y="3082789"/>
-          <a:ext cx="1037455" cy="2079060"/>
+          <a:off x="7342842" y="2930389"/>
+          <a:ext cx="1189855" cy="1974285"/>
           <a:chOff x="843223" y="3085170"/>
           <a:chExt cx="1032693" cy="2079060"/>
         </a:xfrm>
@@ -24460,8 +24561,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="8407258" y="3086361"/>
-          <a:ext cx="1037456" cy="2079060"/>
+          <a:off x="9397858" y="2933961"/>
+          <a:ext cx="1189856" cy="1974285"/>
           <a:chOff x="843223" y="3085170"/>
           <a:chExt cx="1032693" cy="2079060"/>
         </a:xfrm>
@@ -25057,8 +25158,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="10235520" y="3090848"/>
-          <a:ext cx="1037457" cy="2079060"/>
+          <a:off x="11454720" y="2938448"/>
+          <a:ext cx="1189857" cy="1974285"/>
           <a:chOff x="843223" y="3085170"/>
           <a:chExt cx="1032693" cy="2079060"/>
         </a:xfrm>
@@ -25654,8 +25755,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="11990500" y="3094420"/>
-          <a:ext cx="1037456" cy="2079060"/>
+          <a:off x="13438300" y="2942020"/>
+          <a:ext cx="1189856" cy="1974285"/>
           <a:chOff x="843223" y="3085170"/>
           <a:chExt cx="1032693" cy="2079060"/>
         </a:xfrm>
@@ -26251,8 +26352,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="13839589" y="3093894"/>
-          <a:ext cx="1037456" cy="2079060"/>
+          <a:off x="15515989" y="2941494"/>
+          <a:ext cx="1189856" cy="1974285"/>
           <a:chOff x="843223" y="3085170"/>
           <a:chExt cx="1032693" cy="2079060"/>
         </a:xfrm>
@@ -26848,8 +26949,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="15695770" y="3097466"/>
-          <a:ext cx="1037456" cy="2079060"/>
+          <a:off x="17600770" y="2945066"/>
+          <a:ext cx="1189856" cy="1974285"/>
           <a:chOff x="843223" y="3085170"/>
           <a:chExt cx="1032693" cy="2079060"/>
         </a:xfrm>
@@ -27780,8 +27881,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="4657981" y="3088742"/>
-          <a:ext cx="1037455" cy="2079060"/>
+          <a:off x="5191381" y="2936342"/>
+          <a:ext cx="1189855" cy="1974285"/>
           <a:chOff x="843223" y="3085170"/>
           <a:chExt cx="1032693" cy="2079060"/>
         </a:xfrm>
@@ -28456,8 +28557,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="10725255" y="7237886"/>
-          <a:ext cx="1337777" cy="427022"/>
+          <a:off x="12058755" y="6813743"/>
+          <a:ext cx="1494660" cy="402930"/>
           <a:chOff x="2618016" y="2158214"/>
           <a:chExt cx="1346095" cy="427022"/>
         </a:xfrm>
@@ -28838,8 +28939,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="12695600" y="4548726"/>
-          <a:ext cx="1333661" cy="1673475"/>
+          <a:off x="14264423" y="4290991"/>
+          <a:ext cx="1568985" cy="1572622"/>
           <a:chOff x="5932540" y="3244578"/>
           <a:chExt cx="1346095" cy="2964660"/>
         </a:xfrm>
@@ -28974,8 +29075,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1467814" y="7140026"/>
-          <a:ext cx="1333662" cy="533220"/>
+          <a:off x="1624697" y="6725408"/>
+          <a:ext cx="1490543" cy="499603"/>
           <a:chOff x="5913504" y="3305175"/>
           <a:chExt cx="1346095" cy="1257300"/>
         </a:xfrm>
@@ -29111,8 +29212,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="6283406" y="5479843"/>
-          <a:ext cx="1337777" cy="427022"/>
+          <a:off x="7067818" y="5166078"/>
+          <a:ext cx="1494659" cy="393405"/>
           <a:chOff x="2618016" y="2158214"/>
           <a:chExt cx="1346095" cy="427022"/>
         </a:xfrm>
@@ -29268,8 +29369,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm rot="5400000">
-          <a:off x="13704752" y="1514017"/>
-          <a:ext cx="1146629" cy="425708"/>
+          <a:off x="15542517" y="1413164"/>
+          <a:ext cx="1079393" cy="425708"/>
           <a:chOff x="2837509" y="2158214"/>
           <a:chExt cx="1525883" cy="427022"/>
         </a:xfrm>
@@ -29401,8 +29502,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="12035044" y="1136842"/>
-          <a:ext cx="1135037" cy="427022"/>
+          <a:off x="13525427" y="1080813"/>
+          <a:ext cx="1291918" cy="393404"/>
           <a:chOff x="2837509" y="2158214"/>
           <a:chExt cx="1525883" cy="427022"/>
         </a:xfrm>
@@ -29537,8 +29638,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="7102049" y="3669057"/>
-          <a:ext cx="5080097" cy="794220"/>
+          <a:off x="7964902" y="3456145"/>
+          <a:ext cx="5786067" cy="749397"/>
           <a:chOff x="10014858" y="6268483"/>
           <a:chExt cx="5145325" cy="1057107"/>
         </a:xfrm>
@@ -29729,8 +29830,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="12140838" y="3689614"/>
-          <a:ext cx="1891506" cy="629223"/>
+          <a:off x="13709661" y="3476702"/>
+          <a:ext cx="2126830" cy="595606"/>
           <a:chOff x="12281673" y="5090452"/>
           <a:chExt cx="1894562" cy="1013370"/>
         </a:xfrm>
@@ -30220,8 +30321,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="10813377" y="2111474"/>
-          <a:ext cx="1341657" cy="709714"/>
+          <a:off x="12146877" y="1988209"/>
+          <a:ext cx="1576980" cy="676097"/>
           <a:chOff x="5924550" y="3305175"/>
           <a:chExt cx="1354085" cy="1257300"/>
         </a:xfrm>
@@ -30356,8 +30457,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="8567570" y="1129593"/>
-          <a:ext cx="864192" cy="427022"/>
+          <a:off x="9665747" y="1073564"/>
+          <a:ext cx="942632" cy="393404"/>
           <a:chOff x="2837509" y="2158214"/>
           <a:chExt cx="1525883" cy="427022"/>
         </a:xfrm>
@@ -30489,8 +30590,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="4701734" y="2084585"/>
-          <a:ext cx="1340637" cy="645195"/>
+          <a:off x="5250822" y="1972526"/>
+          <a:ext cx="1497519" cy="600372"/>
           <a:chOff x="5924550" y="3305175"/>
           <a:chExt cx="1354085" cy="1257300"/>
         </a:xfrm>
@@ -30635,8 +30736,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="6188884" y="857249"/>
-          <a:ext cx="708970" cy="668069"/>
+          <a:off x="6973296" y="812425"/>
+          <a:ext cx="787411" cy="623246"/>
           <a:chOff x="2837509" y="1898117"/>
           <a:chExt cx="1525883" cy="668069"/>
         </a:xfrm>
@@ -30790,8 +30891,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1677444" y="1115665"/>
-          <a:ext cx="1508973" cy="427022"/>
+          <a:off x="1834327" y="1059636"/>
+          <a:ext cx="1744296" cy="393404"/>
           <a:chOff x="2837509" y="2158214"/>
           <a:chExt cx="1525883" cy="427022"/>
         </a:xfrm>
@@ -31363,8 +31464,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="2282945" y="1445157"/>
-          <a:ext cx="1345120" cy="1257300"/>
+          <a:off x="2518268" y="1366716"/>
+          <a:ext cx="1502003" cy="1178859"/>
           <a:chOff x="5924550" y="3305175"/>
           <a:chExt cx="1354085" cy="1257300"/>
         </a:xfrm>
@@ -32123,8 +32224,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="728161" y="5726211"/>
-          <a:ext cx="1510733" cy="427022"/>
+          <a:off x="806602" y="5390035"/>
+          <a:ext cx="1667615" cy="404610"/>
           <a:chOff x="2837509" y="2158214"/>
           <a:chExt cx="1525883" cy="427022"/>
         </a:xfrm>
@@ -33223,202 +33324,515 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7EB70782-4063-4EB5-96ED-E45C211F8B0C}">
-  <dimension ref="A1:L22"/>
+  <dimension ref="A1:O23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L18" sqref="L18"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="O12" sqref="O12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="21.75" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="21.75" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="19.7109375" style="38" customWidth="1"/>
-    <col min="2" max="2" width="30" style="37" customWidth="1"/>
-    <col min="3" max="3" width="5" style="37" customWidth="1"/>
-    <col min="4" max="4" width="5.42578125" style="37" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5" style="37" customWidth="1"/>
-    <col min="6" max="6" width="5.42578125" style="37" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="5" style="37" customWidth="1"/>
-    <col min="8" max="8" width="5.42578125" style="37" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5" style="37" customWidth="1"/>
-    <col min="10" max="10" width="5.42578125" style="37" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="5.42578125" style="37" customWidth="1"/>
-    <col min="12" max="12" width="65.140625" style="37" customWidth="1"/>
-    <col min="13" max="13" width="36.85546875" style="37" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="37"/>
+    <col min="1" max="1" width="15.875" style="30" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.875" style="29" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5" style="29" customWidth="1"/>
+    <col min="4" max="4" width="5.375" style="29" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5" style="29" customWidth="1"/>
+    <col min="6" max="6" width="5.375" style="29" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5" style="29" customWidth="1"/>
+    <col min="8" max="8" width="5.375" style="29" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5" style="29" customWidth="1"/>
+    <col min="10" max="10" width="5.375" style="29" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="5" style="29" customWidth="1"/>
+    <col min="12" max="12" width="5.375" style="29" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="5" style="29" customWidth="1"/>
+    <col min="14" max="14" width="5.375" style="29" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="65.125" style="30" customWidth="1"/>
+    <col min="16" max="16" width="36.875" style="29" customWidth="1"/>
+    <col min="17" max="16384" width="9.125" style="29"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.5">
-      <c r="A1" s="39" t="s">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.5">
+      <c r="A1" s="47" t="s">
+        <v>505</v>
+      </c>
+      <c r="B1" s="47" t="s">
+        <v>499</v>
+      </c>
+      <c r="C1" s="42" t="s">
         <v>496</v>
       </c>
-      <c r="B1" s="40" t="s">
+      <c r="D1" s="42"/>
+      <c r="E1" s="43" t="s">
+        <v>506</v>
+      </c>
+      <c r="F1" s="43"/>
+      <c r="G1" s="44" t="s">
+        <v>507</v>
+      </c>
+      <c r="H1" s="44"/>
+      <c r="I1" s="45" t="s">
+        <v>508</v>
+      </c>
+      <c r="J1" s="45"/>
+      <c r="K1" s="48" t="s">
+        <v>509</v>
+      </c>
+      <c r="L1" s="48"/>
+      <c r="M1" s="46" t="s">
+        <v>528</v>
+      </c>
+      <c r="N1" s="46"/>
+      <c r="O1" s="41"/>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.5">
+      <c r="A2" s="47"/>
+      <c r="B2" s="47"/>
+      <c r="C2" s="42" t="s">
+        <v>497</v>
+      </c>
+      <c r="D2" s="42"/>
+      <c r="E2" s="43" t="s">
+        <v>510</v>
+      </c>
+      <c r="F2" s="43"/>
+      <c r="G2" s="44" t="s">
+        <v>511</v>
+      </c>
+      <c r="H2" s="44"/>
+      <c r="I2" s="45" t="s">
+        <v>512</v>
+      </c>
+      <c r="J2" s="45"/>
+      <c r="K2" s="48" t="s">
+        <v>513</v>
+      </c>
+      <c r="L2" s="48"/>
+      <c r="M2" s="46" t="s">
+        <v>529</v>
+      </c>
+      <c r="N2" s="46"/>
+      <c r="O2" s="41"/>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.5">
+      <c r="A3" s="47"/>
+      <c r="B3" s="47"/>
+      <c r="C3" s="35" t="s">
+        <v>501</v>
+      </c>
+      <c r="D3" s="35" t="s">
+        <v>502</v>
+      </c>
+      <c r="E3" s="35" t="s">
+        <v>501</v>
+      </c>
+      <c r="F3" s="35" t="s">
+        <v>502</v>
+      </c>
+      <c r="G3" s="35" t="s">
+        <v>501</v>
+      </c>
+      <c r="H3" s="35" t="s">
+        <v>502</v>
+      </c>
+      <c r="I3" s="35" t="s">
+        <v>501</v>
+      </c>
+      <c r="J3" s="35" t="s">
+        <v>502</v>
+      </c>
+      <c r="K3" s="35" t="s">
+        <v>501</v>
+      </c>
+      <c r="L3" s="35" t="s">
+        <v>502</v>
+      </c>
+      <c r="M3" s="35" t="s">
+        <v>501</v>
+      </c>
+      <c r="N3" s="35" t="s">
+        <v>502</v>
+      </c>
+      <c r="O3" s="3"/>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.5">
+      <c r="A4" s="37" t="s">
+        <v>520</v>
+      </c>
+      <c r="B4" s="32" t="s">
+        <v>498</v>
+      </c>
+      <c r="C4" s="36" t="s">
+        <v>503</v>
+      </c>
+      <c r="D4" s="36" t="s">
+        <v>503</v>
+      </c>
+      <c r="E4" s="36" t="s">
+        <v>503</v>
+      </c>
+      <c r="F4" s="36" t="s">
+        <v>503</v>
+      </c>
+      <c r="G4" s="36" t="s">
+        <v>503</v>
+      </c>
+      <c r="H4" s="36" t="s">
+        <v>503</v>
+      </c>
+      <c r="I4" s="36" t="s">
+        <v>503</v>
+      </c>
+      <c r="J4" s="36" t="s">
+        <v>503</v>
+      </c>
+      <c r="K4" s="36" t="s">
+        <v>503</v>
+      </c>
+      <c r="L4" s="36" t="s">
+        <v>503</v>
+      </c>
+      <c r="M4" s="36"/>
+      <c r="N4" s="36"/>
+      <c r="O4" s="34"/>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.5">
+      <c r="A5" s="38" t="s">
+        <v>514</v>
+      </c>
+      <c r="B5" s="32" t="s">
         <v>500</v>
       </c>
-      <c r="C1" s="56" t="s">
-        <v>497</v>
-      </c>
-      <c r="D1" s="56"/>
-      <c r="E1" s="57" t="s">
-        <v>497</v>
-      </c>
-      <c r="F1" s="57"/>
-      <c r="G1" s="58" t="s">
-        <v>497</v>
-      </c>
-      <c r="H1" s="58"/>
-      <c r="I1" s="59" t="s">
-        <v>497</v>
-      </c>
-      <c r="J1" s="59"/>
-      <c r="K1" s="48"/>
-      <c r="L1" s="54"/>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.5">
-      <c r="A2" s="39"/>
-      <c r="B2" s="40"/>
-      <c r="C2" s="56" t="s">
-        <v>498</v>
-      </c>
-      <c r="D2" s="56"/>
-      <c r="E2" s="57" t="s">
-        <v>498</v>
-      </c>
-      <c r="F2" s="57"/>
-      <c r="G2" s="58" t="s">
-        <v>498</v>
-      </c>
-      <c r="H2" s="58"/>
-      <c r="I2" s="59" t="s">
-        <v>498</v>
-      </c>
-      <c r="J2" s="59"/>
-      <c r="K2" s="48"/>
-      <c r="L2" s="55"/>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.5">
-      <c r="A3" s="11"/>
-      <c r="B3" s="47"/>
-      <c r="C3" s="51" t="s">
-        <v>505</v>
-      </c>
-      <c r="D3" s="51" t="s">
-        <v>506</v>
-      </c>
-      <c r="E3" s="51" t="s">
-        <v>505</v>
-      </c>
-      <c r="F3" s="51" t="s">
-        <v>506</v>
-      </c>
-      <c r="G3" s="51" t="s">
-        <v>505</v>
-      </c>
-      <c r="H3" s="51" t="s">
-        <v>506</v>
-      </c>
-      <c r="I3" s="51" t="s">
-        <v>505</v>
-      </c>
-      <c r="J3" s="51" t="s">
-        <v>506</v>
-      </c>
-      <c r="K3" s="51"/>
-      <c r="L3" s="49"/>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.5">
-      <c r="A4" s="42" t="s">
+      <c r="C5" s="36" t="s">
         <v>503</v>
       </c>
-      <c r="B4" s="41" t="s">
-        <v>499</v>
-      </c>
-      <c r="C4" s="50" t="s">
-        <v>507</v>
-      </c>
-      <c r="D4" s="50" t="s">
-        <v>507</v>
-      </c>
-      <c r="E4" s="50" t="s">
-        <v>507</v>
-      </c>
-      <c r="F4" s="50" t="s">
-        <v>507</v>
-      </c>
-      <c r="G4" s="50" t="s">
-        <v>507</v>
-      </c>
-      <c r="H4" s="50" t="s">
-        <v>507</v>
-      </c>
-      <c r="I4" s="50" t="s">
-        <v>507</v>
-      </c>
-      <c r="J4" s="50" t="s">
-        <v>507</v>
-      </c>
-      <c r="K4" s="50" t="s">
-        <v>507</v>
-      </c>
-      <c r="L4" s="46" t="s">
+      <c r="D5" s="36" t="s">
+        <v>503</v>
+      </c>
+      <c r="E5" s="36" t="s">
+        <v>503</v>
+      </c>
+      <c r="F5" s="36" t="s">
+        <v>503</v>
+      </c>
+      <c r="G5" s="36" t="s">
+        <v>503</v>
+      </c>
+      <c r="H5" s="36" t="s">
+        <v>503</v>
+      </c>
+      <c r="I5" s="36" t="s">
+        <v>503</v>
+      </c>
+      <c r="J5" s="36" t="s">
+        <v>503</v>
+      </c>
+      <c r="K5" s="36" t="s">
+        <v>503</v>
+      </c>
+      <c r="L5" s="36" t="s">
+        <v>503</v>
+      </c>
+      <c r="M5" s="36"/>
+      <c r="N5" s="36"/>
+      <c r="O5" s="34"/>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.5">
+      <c r="A6" s="37" t="s">
+        <v>42</v>
+      </c>
+      <c r="B6" s="32" t="s">
+        <v>517</v>
+      </c>
+      <c r="C6" s="36" t="s">
+        <v>503</v>
+      </c>
+      <c r="D6" s="36" t="s">
+        <v>503</v>
+      </c>
+      <c r="E6" s="36" t="s">
+        <v>503</v>
+      </c>
+      <c r="F6" s="36" t="s">
+        <v>503</v>
+      </c>
+      <c r="G6" s="36" t="s">
+        <v>503</v>
+      </c>
+      <c r="H6" s="36" t="s">
+        <v>503</v>
+      </c>
+      <c r="I6" s="36" t="s">
+        <v>503</v>
+      </c>
+      <c r="J6" s="36" t="s">
+        <v>503</v>
+      </c>
+      <c r="K6" s="36" t="s">
+        <v>503</v>
+      </c>
+      <c r="L6" s="36" t="s">
+        <v>503</v>
+      </c>
+      <c r="M6" s="36"/>
+      <c r="N6" s="36"/>
+      <c r="O6" s="37"/>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.5">
+      <c r="A7" s="37" t="s">
+        <v>43</v>
+      </c>
+      <c r="B7" s="32" t="s">
+        <v>521</v>
+      </c>
+      <c r="C7" s="36" t="s">
+        <v>503</v>
+      </c>
+      <c r="D7" s="36" t="s">
+        <v>503</v>
+      </c>
+      <c r="E7" s="36" t="s">
+        <v>503</v>
+      </c>
+      <c r="F7" s="36" t="s">
+        <v>503</v>
+      </c>
+      <c r="G7" s="36" t="s">
+        <v>503</v>
+      </c>
+      <c r="H7" s="36" t="s">
+        <v>503</v>
+      </c>
+      <c r="I7" s="36" t="s">
+        <v>503</v>
+      </c>
+      <c r="J7" s="36" t="s">
+        <v>503</v>
+      </c>
+      <c r="K7" s="36" t="s">
+        <v>503</v>
+      </c>
+      <c r="L7" s="36" t="s">
+        <v>503</v>
+      </c>
+      <c r="M7" s="36"/>
+      <c r="N7" s="36"/>
+      <c r="O7" s="37"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.5">
+      <c r="A8" s="37" t="s">
+        <v>515</v>
+      </c>
+      <c r="B8" s="32" t="s">
+        <v>518</v>
+      </c>
+      <c r="C8" s="36" t="s">
+        <v>503</v>
+      </c>
+      <c r="D8" s="36" t="s">
+        <v>503</v>
+      </c>
+      <c r="E8" s="36" t="s">
+        <v>503</v>
+      </c>
+      <c r="F8" s="36" t="s">
+        <v>503</v>
+      </c>
+      <c r="G8" s="36" t="s">
+        <v>503</v>
+      </c>
+      <c r="H8" s="36" t="s">
+        <v>503</v>
+      </c>
+      <c r="I8" s="36" t="s">
+        <v>503</v>
+      </c>
+      <c r="J8" s="36" t="s">
+        <v>503</v>
+      </c>
+      <c r="K8" s="36" t="s">
+        <v>503</v>
+      </c>
+      <c r="L8" s="36" t="s">
+        <v>503</v>
+      </c>
+      <c r="M8" s="36"/>
+      <c r="N8" s="36"/>
+      <c r="O8" s="37"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.5">
+      <c r="A9" s="37" t="s">
+        <v>516</v>
+      </c>
+      <c r="B9" s="32" t="s">
+        <v>519</v>
+      </c>
+      <c r="C9" s="36" t="s">
+        <v>503</v>
+      </c>
+      <c r="D9" s="36" t="s">
+        <v>503</v>
+      </c>
+      <c r="E9" s="36" t="s">
+        <v>503</v>
+      </c>
+      <c r="F9" s="36" t="s">
+        <v>503</v>
+      </c>
+      <c r="G9" s="36" t="s">
+        <v>503</v>
+      </c>
+      <c r="H9" s="36" t="s">
+        <v>503</v>
+      </c>
+      <c r="I9" s="36" t="s">
+        <v>503</v>
+      </c>
+      <c r="J9" s="36" t="s">
+        <v>503</v>
+      </c>
+      <c r="K9" s="36" t="s">
+        <v>503</v>
+      </c>
+      <c r="L9" s="36" t="s">
+        <v>503</v>
+      </c>
+      <c r="M9" s="36"/>
+      <c r="N9" s="36"/>
+      <c r="O9" s="37"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.5">
+      <c r="A10" s="37" t="s">
+        <v>522</v>
+      </c>
+      <c r="B10" s="32" t="s">
+        <v>523</v>
+      </c>
+      <c r="C10" s="36" t="s">
+        <v>503</v>
+      </c>
+      <c r="D10" s="36" t="s">
+        <v>503</v>
+      </c>
+      <c r="E10" s="39" t="s">
+        <v>525</v>
+      </c>
+      <c r="F10" s="39" t="s">
+        <v>525</v>
+      </c>
+      <c r="G10" s="36" t="s">
+        <v>503</v>
+      </c>
+      <c r="H10" s="36" t="s">
+        <v>503</v>
+      </c>
+      <c r="I10" s="39" t="s">
+        <v>525</v>
+      </c>
+      <c r="J10" s="39" t="s">
+        <v>525</v>
+      </c>
+      <c r="K10" s="39" t="s">
+        <v>525</v>
+      </c>
+      <c r="L10" s="39" t="s">
+        <v>525</v>
+      </c>
+      <c r="M10" s="39" t="s">
+        <v>525</v>
+      </c>
+      <c r="N10" s="39" t="s">
+        <v>525</v>
+      </c>
+      <c r="O10" s="37" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.5">
+      <c r="A11" s="30" t="s">
+        <v>526</v>
+      </c>
+      <c r="B11" s="29" t="s">
+        <v>527</v>
+      </c>
+      <c r="C11" s="36" t="s">
+        <v>503</v>
+      </c>
+      <c r="D11" s="36" t="s">
+        <v>503</v>
+      </c>
+      <c r="E11" s="36" t="s">
+        <v>503</v>
+      </c>
+      <c r="F11" s="36" t="s">
+        <v>503</v>
+      </c>
+      <c r="G11" s="36" t="s">
+        <v>503</v>
+      </c>
+      <c r="H11" s="36" t="s">
+        <v>503</v>
+      </c>
+      <c r="I11" s="36" t="s">
+        <v>503</v>
+      </c>
+      <c r="J11" s="36" t="s">
+        <v>503</v>
+      </c>
+      <c r="K11" s="36" t="s">
+        <v>503</v>
+      </c>
+      <c r="L11" s="36" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="22" spans="3:14" x14ac:dyDescent="0.5">
+      <c r="C22" s="33" t="s">
         <v>504</v>
       </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.5">
-      <c r="A5" s="44" t="s">
-        <v>502</v>
-      </c>
-      <c r="B5" s="45" t="s">
-        <v>501</v>
-      </c>
-      <c r="C5" s="43"/>
-      <c r="D5" s="43"/>
-      <c r="E5" s="43"/>
-      <c r="F5" s="43"/>
-      <c r="G5" s="43"/>
-      <c r="H5" s="43"/>
-      <c r="I5" s="43"/>
-      <c r="J5" s="43"/>
-      <c r="K5" s="43"/>
-      <c r="L5" s="46" t="s">
+      <c r="D22" s="31"/>
+      <c r="E22" s="33" t="s">
         <v>504</v>
       </c>
-    </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.5">
-      <c r="C21" s="52" t="s">
-        <v>508</v>
-      </c>
-      <c r="D21" s="43"/>
-      <c r="E21" s="52" t="s">
-        <v>508</v>
-      </c>
-      <c r="F21" s="43"/>
-      <c r="G21" s="52" t="s">
-        <v>508</v>
-      </c>
-      <c r="H21" s="43"/>
-      <c r="I21" s="52" t="s">
-        <v>508</v>
-      </c>
-      <c r="J21" s="43"/>
-      <c r="K21" s="53"/>
-    </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.5">
-      <c r="C22" s="45"/>
-      <c r="D22" s="43"/>
-      <c r="E22" s="45"/>
-      <c r="F22" s="43"/>
-      <c r="G22" s="45"/>
-      <c r="H22" s="43"/>
-      <c r="I22" s="45"/>
-      <c r="J22" s="43"/>
-      <c r="K22" s="53"/>
+      <c r="F22" s="31"/>
+      <c r="G22" s="33" t="s">
+        <v>504</v>
+      </c>
+      <c r="H22" s="31"/>
+      <c r="I22" s="33" t="s">
+        <v>504</v>
+      </c>
+      <c r="J22" s="31"/>
+      <c r="K22" s="33" t="s">
+        <v>504</v>
+      </c>
+      <c r="L22" s="31"/>
+      <c r="M22" s="33" t="s">
+        <v>504</v>
+      </c>
+      <c r="N22" s="31"/>
+    </row>
+    <row r="23" spans="3:14" x14ac:dyDescent="0.5">
+      <c r="C23" s="32"/>
+      <c r="D23" s="31"/>
+      <c r="E23" s="32"/>
+      <c r="F23" s="31"/>
+      <c r="G23" s="32"/>
+      <c r="H23" s="31"/>
+      <c r="I23" s="32"/>
+      <c r="J23" s="31"/>
+      <c r="K23" s="32"/>
+      <c r="L23" s="31"/>
+      <c r="M23" s="32"/>
+      <c r="N23" s="31"/>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="15">
+    <mergeCell ref="B1:B3"/>
+    <mergeCell ref="A1:A3"/>
+    <mergeCell ref="K1:L1"/>
+    <mergeCell ref="K2:L2"/>
     <mergeCell ref="I2:J2"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="L1:L2"/>
+    <mergeCell ref="O1:O2"/>
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="E1:F1"/>
@@ -33426,6 +33840,8 @@
     <mergeCell ref="G1:H1"/>
     <mergeCell ref="G2:H2"/>
     <mergeCell ref="I1:J1"/>
+    <mergeCell ref="M1:N1"/>
+    <mergeCell ref="M2:N2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -33433,6 +33849,55 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD7A1E02-2C41-48A2-B583-EB0724F4C88F}">
+  <dimension ref="A20:E28"/>
+  <sheetViews>
+    <sheetView topLeftCell="A13" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="F29" sqref="F29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>53</v>
+      </c>
+      <c r="C26" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>54</v>
+      </c>
+      <c r="C28" t="s">
+        <v>56</v>
+      </c>
+      <c r="E28" s="15" t="s">
+        <v>55</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69506E24-EFB8-40E7-B177-0ED6EF197817}">
   <dimension ref="A2:A4"/>
   <sheetViews>
@@ -33440,14 +33905,14 @@
       <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>1</v>
       </c>
@@ -33457,7 +33922,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C554FD1B-CCE1-427F-8843-A839E31691A8}">
   <dimension ref="A2:B13"/>
   <sheetViews>
@@ -33465,29 +33930,29 @@
       <selection activeCell="N19" sqref="N19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -33498,7 +33963,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA8E29E1-3CA8-49B1-B47D-B8394899C415}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
@@ -33509,7 +33974,7 @@
       <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="8" scale="89" orientation="landscape" r:id="rId1"/>
@@ -33517,7 +33982,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{554AF2CF-D29C-457E-B833-E2B5389EFEE7}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
@@ -33528,7 +33993,7 @@
       <selection activeCell="Y44" sqref="Y44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="8" scale="85" orientation="landscape" r:id="rId1"/>
@@ -33536,7 +34001,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96A21EA5-DD0B-4678-AE46-0AF87634C6E0}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -33544,14 +34009,14 @@
       <selection activeCell="L17" sqref="L17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB0A6C9E-10AD-4112-8426-2F32B5911F1B}">
   <dimension ref="A1:G27"/>
   <sheetViews>
@@ -33559,17 +34024,17 @@
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="33.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="33.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>472</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>475</v>
       </c>
@@ -33583,7 +34048,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>477</v>
       </c>
@@ -33591,12 +34056,12 @@
         <v>485</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="G4" s="28" t="s">
         <v>486</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>478</v>
       </c>
@@ -33607,7 +34072,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>491</v>
       </c>
@@ -33615,7 +34080,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>489</v>
       </c>
@@ -33623,7 +34088,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>480</v>
       </c>
@@ -33631,7 +34096,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>482</v>
       </c>
@@ -33639,7 +34104,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>479</v>
       </c>
@@ -33647,7 +34112,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>492</v>
       </c>
@@ -33655,7 +34120,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>482</v>
       </c>
@@ -33663,52 +34128,52 @@
         <v>483</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>461</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>462</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>487</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>463</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>464</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>465</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>466</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>467</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>468</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>469</v>
       </c>
@@ -33716,7 +34181,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>471</v>
       </c>
@@ -33738,49 +34203,49 @@
       <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>3</v>
       </c>
@@ -33795,6 +34260,84 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45DE8B3F-3603-4C95-BEE5-E331F3F449BF}">
+  <dimension ref="A2:F7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="10.875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>530</v>
+      </c>
+      <c r="C2" s="40" t="s">
+        <v>530</v>
+      </c>
+      <c r="F2" s="40" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>531</v>
+      </c>
+      <c r="C3" t="s">
+        <v>534</v>
+      </c>
+      <c r="F3" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>532</v>
+      </c>
+      <c r="C4" t="s">
+        <v>535</v>
+      </c>
+      <c r="F4" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>533</v>
+      </c>
+      <c r="C5" t="s">
+        <v>539</v>
+      </c>
+      <c r="F5" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>538</v>
+      </c>
+      <c r="C6" t="s">
+        <v>536</v>
+      </c>
+      <c r="F6" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C7" t="s">
+        <v>537</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62DA2000-1957-4A7C-9630-5FB3E1BBE12B}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
@@ -33805,10 +34348,10 @@
       <selection activeCell="A5" sqref="A5:XFD5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.140625" defaultRowHeight="24" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="3.125" defaultRowHeight="24" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="1" max="1" width="75" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="3.140625" style="1"/>
+    <col min="2" max="16384" width="3.125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:32" ht="50.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
@@ -33817,45 +34360,45 @@
       </c>
     </row>
     <row r="2" spans="1:32" ht="21" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="29" t="s">
+      <c r="A2" s="49" t="s">
         <v>32</v>
       </c>
-      <c r="B2" s="31" t="s">
+      <c r="B2" s="51" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="31"/>
-      <c r="D2" s="31"/>
-      <c r="E2" s="31"/>
-      <c r="F2" s="31"/>
-      <c r="G2" s="31"/>
-      <c r="H2" s="31"/>
-      <c r="I2" s="31"/>
-      <c r="J2" s="31"/>
-      <c r="K2" s="31"/>
-      <c r="L2" s="31"/>
-      <c r="M2" s="31"/>
-      <c r="N2" s="31"/>
-      <c r="O2" s="31"/>
-      <c r="P2" s="31"/>
-      <c r="Q2" s="31"/>
-      <c r="R2" s="31"/>
-      <c r="S2" s="31"/>
-      <c r="T2" s="31"/>
-      <c r="U2" s="31"/>
-      <c r="V2" s="31"/>
-      <c r="W2" s="31"/>
-      <c r="X2" s="31"/>
-      <c r="Y2" s="31"/>
-      <c r="Z2" s="31"/>
-      <c r="AA2" s="31"/>
-      <c r="AB2" s="31"/>
-      <c r="AC2" s="31"/>
-      <c r="AD2" s="31"/>
-      <c r="AE2" s="31"/>
-      <c r="AF2" s="31"/>
-    </row>
-    <row r="3" spans="1:32" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="30"/>
+      <c r="C2" s="51"/>
+      <c r="D2" s="51"/>
+      <c r="E2" s="51"/>
+      <c r="F2" s="51"/>
+      <c r="G2" s="51"/>
+      <c r="H2" s="51"/>
+      <c r="I2" s="51"/>
+      <c r="J2" s="51"/>
+      <c r="K2" s="51"/>
+      <c r="L2" s="51"/>
+      <c r="M2" s="51"/>
+      <c r="N2" s="51"/>
+      <c r="O2" s="51"/>
+      <c r="P2" s="51"/>
+      <c r="Q2" s="51"/>
+      <c r="R2" s="51"/>
+      <c r="S2" s="51"/>
+      <c r="T2" s="51"/>
+      <c r="U2" s="51"/>
+      <c r="V2" s="51"/>
+      <c r="W2" s="51"/>
+      <c r="X2" s="51"/>
+      <c r="Y2" s="51"/>
+      <c r="Z2" s="51"/>
+      <c r="AA2" s="51"/>
+      <c r="AB2" s="51"/>
+      <c r="AC2" s="51"/>
+      <c r="AD2" s="51"/>
+      <c r="AE2" s="51"/>
+      <c r="AF2" s="51"/>
+    </row>
+    <row r="3" spans="1:32" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="50"/>
       <c r="B3" s="4">
         <v>1</v>
       </c>
@@ -33950,7 +34493,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:32" s="2" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:32" s="2" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="12" t="s">
         <v>19</v>
       </c>
@@ -33986,7 +34529,7 @@
       <c r="AE4" s="5"/>
       <c r="AF4" s="5"/>
     </row>
-    <row r="5" spans="1:32" s="2" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:32" s="2" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="12" t="s">
         <v>20</v>
       </c>
@@ -34022,7 +34565,7 @@
       <c r="AE5" s="5"/>
       <c r="AF5" s="5"/>
     </row>
-    <row r="6" spans="1:32" s="2" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:32" s="2" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="12" t="s">
         <v>21</v>
       </c>
@@ -34058,7 +34601,7 @@
       <c r="AE6" s="5"/>
       <c r="AF6" s="5"/>
     </row>
-    <row r="7" spans="1:32" s="2" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:32" s="2" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>22</v>
       </c>
@@ -34094,7 +34637,7 @@
       <c r="AE7" s="5"/>
       <c r="AF7" s="5"/>
     </row>
-    <row r="8" spans="1:32" s="2" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:32" s="2" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>23</v>
       </c>
@@ -34130,7 +34673,7 @@
       <c r="AE8" s="5"/>
       <c r="AF8" s="5"/>
     </row>
-    <row r="9" spans="1:32" s="2" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:32" s="2" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
         <v>24</v>
       </c>
@@ -34166,7 +34709,7 @@
       <c r="AE9" s="5"/>
       <c r="AF9" s="5"/>
     </row>
-    <row r="10" spans="1:32" s="2" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:32" s="2" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>25</v>
       </c>
@@ -34202,7 +34745,7 @@
       <c r="AE10" s="5"/>
       <c r="AF10" s="5"/>
     </row>
-    <row r="11" spans="1:32" s="2" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:32" s="2" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
         <v>26</v>
       </c>
@@ -34238,7 +34781,7 @@
       <c r="AE11" s="5"/>
       <c r="AF11" s="5"/>
     </row>
-    <row r="12" spans="1:32" s="2" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:32" s="2" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
         <v>34</v>
       </c>
@@ -34274,7 +34817,7 @@
       <c r="AE12" s="5"/>
       <c r="AF12" s="5"/>
     </row>
-    <row r="13" spans="1:32" s="2" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:32" s="2" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
         <v>35</v>
       </c>
@@ -34310,7 +34853,7 @@
       <c r="AE13" s="5"/>
       <c r="AF13" s="5"/>
     </row>
-    <row r="14" spans="1:32" s="2" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:32" s="2" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="5"/>
       <c r="B14" s="6"/>
       <c r="C14" s="6"/>
@@ -34344,7 +34887,7 @@
       <c r="AE14" s="5"/>
       <c r="AF14" s="5"/>
     </row>
-    <row r="15" spans="1:32" s="2" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:32" s="2" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="5"/>
       <c r="B15" s="6"/>
       <c r="C15" s="6"/>
@@ -34379,75 +34922,75 @@
       <c r="AF15" s="5"/>
     </row>
     <row r="17" spans="1:32" x14ac:dyDescent="0.55000000000000004">
-      <c r="B17" s="32"/>
-      <c r="C17" s="32"/>
-      <c r="D17" s="32"/>
-      <c r="E17" s="32"/>
-      <c r="F17" s="32"/>
-      <c r="G17" s="32"/>
-      <c r="H17" s="32"/>
-      <c r="I17" s="32"/>
-      <c r="J17" s="32"/>
-      <c r="K17" s="32"/>
-      <c r="L17" s="32"/>
-      <c r="M17" s="32"/>
-      <c r="N17" s="32"/>
-      <c r="O17" s="32"/>
-      <c r="P17" s="32"/>
-      <c r="Q17" s="32"/>
-      <c r="R17" s="32"/>
-      <c r="S17" s="32"/>
-      <c r="T17" s="32"/>
-      <c r="U17" s="32"/>
-      <c r="V17" s="32"/>
-      <c r="W17" s="32"/>
-      <c r="X17" s="32"/>
-      <c r="Y17" s="32"/>
-      <c r="Z17" s="32"/>
-      <c r="AA17" s="32"/>
-      <c r="AB17" s="33"/>
-      <c r="AC17" s="33"/>
+      <c r="B17" s="52"/>
+      <c r="C17" s="52"/>
+      <c r="D17" s="52"/>
+      <c r="E17" s="52"/>
+      <c r="F17" s="52"/>
+      <c r="G17" s="52"/>
+      <c r="H17" s="52"/>
+      <c r="I17" s="52"/>
+      <c r="J17" s="52"/>
+      <c r="K17" s="52"/>
+      <c r="L17" s="52"/>
+      <c r="M17" s="52"/>
+      <c r="N17" s="52"/>
+      <c r="O17" s="52"/>
+      <c r="P17" s="52"/>
+      <c r="Q17" s="52"/>
+      <c r="R17" s="52"/>
+      <c r="S17" s="52"/>
+      <c r="T17" s="52"/>
+      <c r="U17" s="52"/>
+      <c r="V17" s="52"/>
+      <c r="W17" s="52"/>
+      <c r="X17" s="52"/>
+      <c r="Y17" s="52"/>
+      <c r="Z17" s="52"/>
+      <c r="AA17" s="52"/>
+      <c r="AB17" s="53"/>
+      <c r="AC17" s="53"/>
     </row>
     <row r="18" spans="1:32" x14ac:dyDescent="0.55000000000000004">
-      <c r="A18" s="29" t="s">
+      <c r="A18" s="49" t="s">
         <v>32</v>
       </c>
-      <c r="B18" s="34" t="s">
+      <c r="B18" s="54" t="s">
         <v>27</v>
       </c>
-      <c r="C18" s="35"/>
-      <c r="D18" s="35"/>
-      <c r="E18" s="35"/>
-      <c r="F18" s="35"/>
-      <c r="G18" s="35"/>
-      <c r="H18" s="35"/>
-      <c r="I18" s="35"/>
-      <c r="J18" s="35"/>
-      <c r="K18" s="35"/>
-      <c r="L18" s="35"/>
-      <c r="M18" s="35"/>
-      <c r="N18" s="35"/>
-      <c r="O18" s="35"/>
-      <c r="P18" s="35"/>
-      <c r="Q18" s="35"/>
-      <c r="R18" s="35"/>
-      <c r="S18" s="35"/>
-      <c r="T18" s="35"/>
-      <c r="U18" s="35"/>
-      <c r="V18" s="35"/>
-      <c r="W18" s="35"/>
-      <c r="X18" s="35"/>
-      <c r="Y18" s="35"/>
-      <c r="Z18" s="35"/>
-      <c r="AA18" s="35"/>
-      <c r="AB18" s="35"/>
-      <c r="AC18" s="36"/>
+      <c r="C18" s="55"/>
+      <c r="D18" s="55"/>
+      <c r="E18" s="55"/>
+      <c r="F18" s="55"/>
+      <c r="G18" s="55"/>
+      <c r="H18" s="55"/>
+      <c r="I18" s="55"/>
+      <c r="J18" s="55"/>
+      <c r="K18" s="55"/>
+      <c r="L18" s="55"/>
+      <c r="M18" s="55"/>
+      <c r="N18" s="55"/>
+      <c r="O18" s="55"/>
+      <c r="P18" s="55"/>
+      <c r="Q18" s="55"/>
+      <c r="R18" s="55"/>
+      <c r="S18" s="55"/>
+      <c r="T18" s="55"/>
+      <c r="U18" s="55"/>
+      <c r="V18" s="55"/>
+      <c r="W18" s="55"/>
+      <c r="X18" s="55"/>
+      <c r="Y18" s="55"/>
+      <c r="Z18" s="55"/>
+      <c r="AA18" s="55"/>
+      <c r="AB18" s="55"/>
+      <c r="AC18" s="56"/>
       <c r="AD18" s="9"/>
       <c r="AE18" s="9"/>
       <c r="AF18" s="9"/>
     </row>
     <row r="19" spans="1:32" x14ac:dyDescent="0.55000000000000004">
-      <c r="A19" s="30"/>
+      <c r="A19" s="50"/>
       <c r="B19" s="4">
         <v>1</v>
       </c>
@@ -34753,45 +35296,45 @@
       <c r="AF25" s="8"/>
     </row>
     <row r="27" spans="1:32" x14ac:dyDescent="0.55000000000000004">
-      <c r="A27" s="29" t="s">
+      <c r="A27" s="49" t="s">
         <v>32</v>
       </c>
-      <c r="B27" s="31" t="s">
+      <c r="B27" s="51" t="s">
         <v>29</v>
       </c>
-      <c r="C27" s="31"/>
-      <c r="D27" s="31"/>
-      <c r="E27" s="31"/>
-      <c r="F27" s="31"/>
-      <c r="G27" s="31"/>
-      <c r="H27" s="31"/>
-      <c r="I27" s="31"/>
-      <c r="J27" s="31"/>
-      <c r="K27" s="31"/>
-      <c r="L27" s="31"/>
-      <c r="M27" s="31"/>
-      <c r="N27" s="31"/>
-      <c r="O27" s="31"/>
-      <c r="P27" s="31"/>
-      <c r="Q27" s="31"/>
-      <c r="R27" s="31"/>
-      <c r="S27" s="31"/>
-      <c r="T27" s="31"/>
-      <c r="U27" s="31"/>
-      <c r="V27" s="31"/>
-      <c r="W27" s="31"/>
-      <c r="X27" s="31"/>
-      <c r="Y27" s="31"/>
-      <c r="Z27" s="31"/>
-      <c r="AA27" s="31"/>
-      <c r="AB27" s="31"/>
-      <c r="AC27" s="31"/>
-      <c r="AD27" s="31"/>
-      <c r="AE27" s="31"/>
-      <c r="AF27" s="31"/>
+      <c r="C27" s="51"/>
+      <c r="D27" s="51"/>
+      <c r="E27" s="51"/>
+      <c r="F27" s="51"/>
+      <c r="G27" s="51"/>
+      <c r="H27" s="51"/>
+      <c r="I27" s="51"/>
+      <c r="J27" s="51"/>
+      <c r="K27" s="51"/>
+      <c r="L27" s="51"/>
+      <c r="M27" s="51"/>
+      <c r="N27" s="51"/>
+      <c r="O27" s="51"/>
+      <c r="P27" s="51"/>
+      <c r="Q27" s="51"/>
+      <c r="R27" s="51"/>
+      <c r="S27" s="51"/>
+      <c r="T27" s="51"/>
+      <c r="U27" s="51"/>
+      <c r="V27" s="51"/>
+      <c r="W27" s="51"/>
+      <c r="X27" s="51"/>
+      <c r="Y27" s="51"/>
+      <c r="Z27" s="51"/>
+      <c r="AA27" s="51"/>
+      <c r="AB27" s="51"/>
+      <c r="AC27" s="51"/>
+      <c r="AD27" s="51"/>
+      <c r="AE27" s="51"/>
+      <c r="AF27" s="51"/>
     </row>
     <row r="28" spans="1:32" x14ac:dyDescent="0.55000000000000004">
-      <c r="A28" s="30"/>
+      <c r="A28" s="50"/>
       <c r="B28" s="4">
         <v>1</v>
       </c>
@@ -35010,7 +35553,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08FECD23-E5B2-4338-AA22-C8BDFB60D3AE}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
@@ -35021,17 +35564,17 @@
       <selection activeCell="R61" sqref="R61"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="18" max="18" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="11.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:18" x14ac:dyDescent="0.2">
       <c r="D2" s="16" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="3" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:18" x14ac:dyDescent="0.2">
       <c r="Q3" t="s">
         <v>41</v>
       </c>
@@ -35039,7 +35582,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="4" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:18" x14ac:dyDescent="0.2">
       <c r="Q4" t="s">
         <v>42</v>
       </c>
@@ -35047,7 +35590,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="5" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:18" x14ac:dyDescent="0.2">
       <c r="Q5" t="s">
         <v>43</v>
       </c>
@@ -35055,27 +35598,27 @@
         <v>46</v>
       </c>
     </row>
-    <row r="6" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="8" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="13" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:18" x14ac:dyDescent="0.2">
       <c r="E13" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:18" x14ac:dyDescent="0.2">
       <c r="E14" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:18" x14ac:dyDescent="0.2">
       <c r="E15" t="s">
         <v>7</v>
       </c>
@@ -35096,7 +35639,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCCDFD98-EAFF-4153-B894-F19EED4BCA51}">
   <dimension ref="C3:F4"/>
   <sheetViews>
@@ -35104,13 +35647,13 @@
       <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.85546875" customWidth="1"/>
-    <col min="5" max="5" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.875" customWidth="1"/>
+    <col min="5" max="5" width="10.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C3" t="s">
         <v>453</v>
       </c>
@@ -35124,7 +35667,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="4" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C4" t="s">
         <v>454</v>
       </c>
@@ -35143,7 +35686,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2EF0868-4D99-47D5-8308-B6676FA121BF}">
   <dimension ref="B2:B23"/>
   <sheetViews>
@@ -35151,114 +35694,114 @@
       <selection activeCell="Q22" sqref="Q22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="2" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>431</v>
       </c>
     </row>
-    <row r="3" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>432</v>
       </c>
     </row>
-    <row r="4" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>433</v>
       </c>
     </row>
-    <row r="5" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>434</v>
       </c>
     </row>
-    <row r="6" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="7" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
         <v>436</v>
       </c>
     </row>
-    <row r="8" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
         <v>437</v>
       </c>
     </row>
-    <row r="9" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
         <v>438</v>
       </c>
     </row>
-    <row r="10" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
         <v>439</v>
       </c>
     </row>
-    <row r="11" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
         <v>440</v>
       </c>
     </row>
-    <row r="12" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
         <v>441</v>
       </c>
     </row>
-    <row r="13" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
         <v>442</v>
       </c>
     </row>
-    <row r="14" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
         <v>443</v>
       </c>
     </row>
-    <row r="15" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
         <v>444</v>
       </c>
     </row>
-    <row r="16" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
         <v>445</v>
       </c>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
         <v>446</v>
       </c>
     </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
         <v>447</v>
       </c>
     </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B19" t="s">
         <v>448</v>
       </c>
     </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
         <v>449</v>
       </c>
     </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B21" t="s">
         <v>450</v>
       </c>
     </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B22" t="s">
         <v>451</v>
       </c>
     </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B23" t="s">
         <v>452</v>
       </c>
@@ -35268,7 +35811,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33465E0A-EF9F-424D-8703-6D2534E9DF57}">
   <dimension ref="A1:J207"/>
   <sheetViews>
@@ -35276,14 +35819,14 @@
       <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="24" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="24" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.28515625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="11.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.25" style="1" customWidth="1"/>
     <col min="3" max="3" width="20" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="37.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="37.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="9.125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="24.75" thickBot="1" x14ac:dyDescent="0.6">
@@ -37989,7 +38532,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9679FE7D-CFD6-4584-B4E7-45EBF0BF7DDD}">
   <dimension ref="A1:E80"/>
   <sheetViews>
@@ -37997,13 +38540,13 @@
       <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="3" customWidth="1"/>
-    <col min="2" max="2" width="73.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="73.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>349</v>
       </c>
@@ -38017,7 +38560,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>349</v>
       </c>
@@ -38031,7 +38574,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>349</v>
       </c>
@@ -38045,7 +38588,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>349</v>
       </c>
@@ -38059,7 +38602,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>349</v>
       </c>
@@ -38073,7 +38616,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>349</v>
       </c>
@@ -38087,7 +38630,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>349</v>
       </c>
@@ -38101,7 +38644,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>349</v>
       </c>
@@ -38115,7 +38658,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>349</v>
       </c>
@@ -38129,7 +38672,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>349</v>
       </c>
@@ -38143,7 +38686,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>349</v>
       </c>
@@ -38157,7 +38700,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>349</v>
       </c>
@@ -38171,7 +38714,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>349</v>
       </c>
@@ -38185,7 +38728,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>349</v>
       </c>
@@ -38199,7 +38742,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>349</v>
       </c>
@@ -38213,7 +38756,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>349</v>
       </c>
@@ -38227,7 +38770,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>349</v>
       </c>
@@ -38241,7 +38784,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>349</v>
       </c>
@@ -38255,7 +38798,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>349</v>
       </c>
@@ -38269,7 +38812,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>349</v>
       </c>
@@ -38283,7 +38826,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>349</v>
       </c>
@@ -38297,7 +38840,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>349</v>
       </c>
@@ -38311,7 +38854,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>349</v>
       </c>
@@ -38325,7 +38868,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>349</v>
       </c>
@@ -38339,7 +38882,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>349</v>
       </c>
@@ -38353,7 +38896,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>349</v>
       </c>
@@ -38367,7 +38910,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>349</v>
       </c>
@@ -38381,7 +38924,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>349</v>
       </c>
@@ -38395,7 +38938,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>349</v>
       </c>
@@ -38409,7 +38952,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>349</v>
       </c>
@@ -38423,7 +38966,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>349</v>
       </c>
@@ -38437,7 +38980,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>349</v>
       </c>
@@ -38451,7 +38994,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>349</v>
       </c>
@@ -38465,7 +39008,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>349</v>
       </c>
@@ -38479,7 +39022,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>349</v>
       </c>
@@ -38493,7 +39036,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>349</v>
       </c>
@@ -38507,7 +39050,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>349</v>
       </c>
@@ -38521,7 +39064,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>349</v>
       </c>
@@ -38535,7 +39078,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>349</v>
       </c>
@@ -38549,7 +39092,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>349</v>
       </c>
@@ -38563,7 +39106,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>349</v>
       </c>
@@ -38577,7 +39120,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>349</v>
       </c>
@@ -38591,7 +39134,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>349</v>
       </c>
@@ -38605,7 +39148,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>349</v>
       </c>
@@ -38619,7 +39162,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>349</v>
       </c>
@@ -38633,7 +39176,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>349</v>
       </c>
@@ -38647,7 +39190,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>349</v>
       </c>
@@ -38661,7 +39204,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>349</v>
       </c>
@@ -38675,7 +39218,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>349</v>
       </c>
@@ -38689,7 +39232,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>349</v>
       </c>
@@ -38703,7 +39246,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>349</v>
       </c>
@@ -38717,7 +39260,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>349</v>
       </c>
@@ -38731,7 +39274,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>349</v>
       </c>
@@ -38745,7 +39288,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>349</v>
       </c>
@@ -38759,7 +39302,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>349</v>
       </c>
@@ -38773,7 +39316,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>349</v>
       </c>
@@ -38787,7 +39330,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>349</v>
       </c>
@@ -38801,7 +39344,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>349</v>
       </c>
@@ -38815,7 +39358,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>349</v>
       </c>
@@ -38829,7 +39372,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>349</v>
       </c>
@@ -38843,7 +39386,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>349</v>
       </c>
@@ -38857,7 +39400,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>349</v>
       </c>
@@ -38871,7 +39414,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>349</v>
       </c>
@@ -38885,7 +39428,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>349</v>
       </c>
@@ -38899,7 +39442,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>349</v>
       </c>
@@ -38913,7 +39456,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>349</v>
       </c>
@@ -38927,7 +39470,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>349</v>
       </c>
@@ -38941,7 +39484,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>349</v>
       </c>
@@ -38955,7 +39498,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>349</v>
       </c>
@@ -38969,7 +39512,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>349</v>
       </c>
@@ -38983,7 +39526,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>349</v>
       </c>
@@ -38997,7 +39540,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>349</v>
       </c>
@@ -39011,7 +39554,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>349</v>
       </c>
@@ -39025,7 +39568,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>349</v>
       </c>
@@ -39039,7 +39582,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>349</v>
       </c>
@@ -39053,7 +39596,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>349</v>
       </c>
@@ -39067,7 +39610,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>349</v>
       </c>
@@ -39081,7 +39624,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>349</v>
       </c>
@@ -39095,12 +39638,12 @@
         <v>428</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="E79" s="24" t="s">
         <v>429</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="E80" s="25" t="s">
         <v>430</v>
       </c>
@@ -39109,53 +39652,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD7A1E02-2C41-48A2-B583-EB0724F4C88F}">
-  <dimension ref="A20:E28"/>
-  <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="F29" sqref="F29"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>53</v>
-      </c>
-      <c r="C26" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>54</v>
-      </c>
-      <c r="C28" t="s">
-        <v>56</v>
-      </c>
-      <c r="E28" s="15" t="s">
-        <v>55</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>